--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IfkovichJak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IfkovichJak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61009EDF-06E4-4CE4-A33D-A44D0CA06742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7EDC08-AC9B-4AFA-951C-56412B25A6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -700,7 +700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +753,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1035,7 +1047,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1139,9 +1151,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1243,65 +1252,74 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1321,14 +1339,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2030,445 +2054,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="64" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="64" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="64" customWidth="1"/>
-    <col min="8" max="9" width="0" style="64" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="62" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="62" hidden="1"/>
+    <col min="1" max="1" width="22" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="63" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="63" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="63" customWidth="1"/>
+    <col min="8" max="9" width="0" style="63" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="61" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="61" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="77"/>
+      <c r="C3" s="79"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="77"/>
+      <c r="C4" s="79"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="67">
         <v>0</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="67">
         <v>0</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="67">
         <v>0</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="66" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="71">
         <v>45552</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="72">
         <v>45615</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="72">
         <v>45685</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="71">
         <v>45685</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="96"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="96"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="95"/>
-      <c r="E43" s="96"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="95"/>
-      <c r="E44" s="96"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="81" t="s">
+      <c r="D48" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="81"/>
+      <c r="E48" s="87"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="67" t="s">
+      <c r="D56" s="66" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="76" t="s">
+      <c r="B57" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="78" t="s">
+      <c r="D57" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="79"/>
+      <c r="E57" s="99"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="99"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B13:E16"/>
+    <mergeCell ref="B17:E19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -2479,21 +2518,6 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B13:E16"/>
-    <mergeCell ref="B17:E19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2509,10 +2533,10 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2607,7 +2631,7 @@
       <c r="T3" s="3">
         <v>16</v>
       </c>
-      <c r="U3" s="105">
+      <c r="U3" s="76">
         <v>17</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -2936,16 +2960,16 @@
       <c r="B15" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="108" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -3002,21 +3026,23 @@
       <c r="B16" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42" t="s">
+      <c r="F16" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="41" t="s">
         <v>109</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -3038,10 +3064,10 @@
       <c r="B17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="40"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
@@ -3191,2040 +3217,2042 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="43" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="8" style="43" customWidth="1"/>
-    <col min="9" max="10" width="0" style="43" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8" style="43"/>
+    <col min="1" max="1" width="3.125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="42" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8" style="42" customWidth="1"/>
+    <col min="9" max="10" width="0" style="42" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>45552</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="52">
-        <v>0.9</v>
+      <c r="E5" s="50"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="51">
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>45566</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52">
+      <c r="E6" s="111">
+        <v>45573</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="49">
+        <v>45580</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="49" t="s">
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="50">
-        <v>45580</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="52">
+      <c r="D8" s="49">
+        <v>45594</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="49" t="s">
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="50">
-        <v>45594</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="52">
+      <c r="D9" s="49">
+        <v>45608</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="50">
-        <v>45608</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="52">
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="49">
+        <v>45622</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="49" t="s">
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="50">
-        <v>45622</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="52">
+      <c r="D11" s="49">
+        <v>45629</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="49" t="s">
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="50">
-        <v>45629</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="52">
+      <c r="D12" s="49">
+        <v>45636</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="106" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="49" t="s">
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="50">
-        <v>45636</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="52">
+      <c r="D13" s="49">
+        <v>45678</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="106" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="50">
-        <v>45678</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="52">
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="52">
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="52"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="52"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="57"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="57"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="57"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="57"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="57"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="57"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="56"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="57"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="57"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="48"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="57"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="48"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="48"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="57"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="60"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="60"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="60"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="60"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="60"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="60"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="60"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="60"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="60"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="60"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="60"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="59"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="60"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="60"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="60"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="59"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="60"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="60"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="60"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="60"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="60"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="60"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="60"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="60"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="59"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="60"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="59"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="60"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="59"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="60"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="59"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="60"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="59"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="60"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="59"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="60"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="59"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="60"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="59"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="60"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="59"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="60"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="59"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="60"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="59"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="60"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="59"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="60"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="59"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="60"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="59"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="60"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="59"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="60"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="59"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="60"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="59"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="60"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="59"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="60"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="59"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="60"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="59"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="60"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="59"/>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="60"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="59"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="60"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="59"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="60"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="59"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="60"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="59"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="60"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="59"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="60"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="59"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="60"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="59"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="58"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="60"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="59"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="58"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="60"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="59"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="60"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="59"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="60"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="59"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="60"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="59"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="60"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="59"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="60"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="59"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="60"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="59"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="60"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="59"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="58"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="60"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="59"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="58"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="60"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="59"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="58"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="60"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="59"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="58"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="60"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="59"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="60"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="59"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="60"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="59"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="60"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="59"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="58"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="60"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="59"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="58"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="60"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="59"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="58"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="60"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="59"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="58"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="60"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="59"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="58"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="60"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="59"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="58"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="60"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="59"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="58"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="60"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="59"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="60"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="59"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="60"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="59"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="58"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="60"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="59"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="58"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="60"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="59"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="58"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="60"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="59"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="60"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="59"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="59"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="60"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="59"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="60"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="59"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="60"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="59"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="60"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="59"/>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="58"/>
-      <c r="G113" s="60"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="59"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="58"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="60"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="59"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="60"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="59"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="59"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="60"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="59"/>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="58"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="60"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="59"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="60"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="59"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="59"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="58"/>
-      <c r="G119" s="60"/>
+      <c r="B119" s="57"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="59"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="59"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="58"/>
-      <c r="G120" s="60"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="57"/>
+      <c r="G120" s="59"/>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="58"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="59"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="60"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="59"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="59"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="58"/>
-      <c r="G122" s="60"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="59"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="58"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="60"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="59"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="59"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="58"/>
-      <c r="G124" s="60"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="58"/>
+      <c r="E124" s="58"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="59"/>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="58"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="59"/>
-      <c r="E125" s="59"/>
-      <c r="F125" s="58"/>
-      <c r="G125" s="60"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="58"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="59"/>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="58"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="59"/>
-      <c r="E126" s="59"/>
-      <c r="F126" s="58"/>
-      <c r="G126" s="60"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="59"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="58"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="59"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="60"/>
+      <c r="B127" s="57"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="59"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="58"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="59"/>
-      <c r="E128" s="59"/>
-      <c r="F128" s="58"/>
-      <c r="G128" s="60"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="58"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="59"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="59"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="60"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="59"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="58"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="59"/>
-      <c r="E130" s="59"/>
-      <c r="F130" s="58"/>
-      <c r="G130" s="60"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="59"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="58"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="59"/>
-      <c r="F131" s="58"/>
-      <c r="G131" s="60"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="59"/>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="58"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="59"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="58"/>
-      <c r="G132" s="60"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="58"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="59"/>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="58"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="60"/>
+      <c r="B133" s="57"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="59"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="58"/>
-      <c r="G134" s="60"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="59"/>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="60"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="59"/>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="58"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="58"/>
-      <c r="G136" s="60"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="58"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="59"/>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="58"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="59"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="58"/>
-      <c r="G137" s="60"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="58"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="59"/>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="59"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="58"/>
-      <c r="G138" s="60"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="59"/>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="58"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="58"/>
-      <c r="G139" s="60"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="59"/>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="58"/>
-      <c r="G140" s="60"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="59"/>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="58"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="60"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="59"/>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="58"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="59"/>
-      <c r="E142" s="59"/>
-      <c r="F142" s="58"/>
-      <c r="G142" s="60"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="59"/>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="58"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="59"/>
-      <c r="E143" s="59"/>
-      <c r="F143" s="58"/>
-      <c r="G143" s="60"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="59"/>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="58"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="59"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="58"/>
-      <c r="G144" s="60"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="58"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="59"/>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="58"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="60"/>
+      <c r="B145" s="57"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="59"/>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="58"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="59"/>
-      <c r="E146" s="59"/>
-      <c r="F146" s="58"/>
-      <c r="G146" s="60"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="59"/>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="58"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="60"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="59"/>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="59"/>
-      <c r="E148" s="59"/>
-      <c r="F148" s="58"/>
-      <c r="G148" s="60"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="58"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="59"/>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="58"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="59"/>
-      <c r="E149" s="59"/>
-      <c r="F149" s="58"/>
-      <c r="G149" s="60"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="58"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="59"/>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="59"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="58"/>
-      <c r="G150" s="60"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="58"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="59"/>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="58"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="58"/>
-      <c r="G151" s="60"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="59"/>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="58"/>
-      <c r="G152" s="60"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="59"/>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="58"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="58"/>
-      <c r="G153" s="60"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="59"/>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="58"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="58"/>
-      <c r="G154" s="60"/>
+      <c r="B154" s="57"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="58"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="59"/>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="58"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="59"/>
-      <c r="E155" s="59"/>
-      <c r="F155" s="58"/>
-      <c r="G155" s="60"/>
+      <c r="B155" s="57"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="58"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="59"/>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="58"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="59"/>
-      <c r="E156" s="59"/>
-      <c r="F156" s="58"/>
-      <c r="G156" s="60"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="58"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="59"/>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="58"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="59"/>
-      <c r="E157" s="59"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="60"/>
+      <c r="B157" s="57"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="59"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="59"/>
-      <c r="E158" s="59"/>
-      <c r="F158" s="58"/>
-      <c r="G158" s="60"/>
+      <c r="B158" s="57"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="59"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="58"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="59"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="60"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="57"/>
+      <c r="G159" s="59"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="58"/>
-      <c r="C160" s="58"/>
-      <c r="D160" s="59"/>
-      <c r="E160" s="59"/>
-      <c r="F160" s="58"/>
-      <c r="G160" s="60"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="58"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="59"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="58"/>
-      <c r="C161" s="58"/>
-      <c r="D161" s="59"/>
-      <c r="E161" s="59"/>
-      <c r="F161" s="58"/>
-      <c r="G161" s="60"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="58"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="59"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="58"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="59"/>
-      <c r="E162" s="59"/>
-      <c r="F162" s="58"/>
-      <c r="G162" s="60"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="58"/>
+      <c r="F162" s="57"/>
+      <c r="G162" s="59"/>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="58"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="59"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="60"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="59"/>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
-      <c r="D164" s="59"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="58"/>
-      <c r="G164" s="60"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="58"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="59"/>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="60"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="57"/>
+      <c r="G165" s="59"/>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="59"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="60"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="58"/>
+      <c r="E166" s="58"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="59"/>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="58"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="59"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="58"/>
-      <c r="G167" s="60"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="59"/>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="59"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="60"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="59"/>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="60"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="59"/>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="58"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="58"/>
-      <c r="G170" s="60"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="58"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="59"/>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="58"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="60"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="59"/>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="58"/>
-      <c r="G172" s="60"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="58"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="59"/>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="58"/>
-      <c r="C173" s="58"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="58"/>
-      <c r="G173" s="60"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="59"/>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="58"/>
-      <c r="C174" s="58"/>
-      <c r="D174" s="59"/>
-      <c r="E174" s="59"/>
-      <c r="F174" s="58"/>
-      <c r="G174" s="60"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="57"/>
+      <c r="G174" s="59"/>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="58"/>
-      <c r="C175" s="58"/>
-      <c r="D175" s="59"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="58"/>
-      <c r="G175" s="60"/>
+      <c r="B175" s="57"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="59"/>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="59"/>
-      <c r="E176" s="59"/>
-      <c r="F176" s="58"/>
-      <c r="G176" s="60"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="59"/>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="58"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="59"/>
-      <c r="E177" s="59"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="60"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="59"/>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="58"/>
-      <c r="C178" s="58"/>
-      <c r="D178" s="59"/>
-      <c r="E178" s="59"/>
-      <c r="F178" s="58"/>
-      <c r="G178" s="60"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="59"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
-      <c r="D179" s="59"/>
-      <c r="E179" s="59"/>
-      <c r="F179" s="58"/>
-      <c r="G179" s="60"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="58"/>
+      <c r="E179" s="58"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="59"/>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="58"/>
-      <c r="C180" s="58"/>
-      <c r="D180" s="59"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="60"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="58"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="59"/>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="58"/>
-      <c r="C181" s="58"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="60"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="59"/>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="58"/>
-      <c r="C182" s="58"/>
-      <c r="D182" s="59"/>
-      <c r="E182" s="59"/>
-      <c r="F182" s="58"/>
-      <c r="G182" s="60"/>
+      <c r="B182" s="57"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="58"/>
+      <c r="E182" s="58"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="59"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="58"/>
-      <c r="C183" s="58"/>
-      <c r="D183" s="59"/>
-      <c r="E183" s="59"/>
-      <c r="F183" s="58"/>
-      <c r="G183" s="60"/>
+      <c r="B183" s="57"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="59"/>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="58"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="59"/>
-      <c r="E184" s="59"/>
-      <c r="F184" s="58"/>
-      <c r="G184" s="60"/>
+      <c r="B184" s="57"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="58"/>
+      <c r="F184" s="57"/>
+      <c r="G184" s="59"/>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="58"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="59"/>
-      <c r="E185" s="59"/>
-      <c r="F185" s="58"/>
-      <c r="G185" s="60"/>
+      <c r="B185" s="57"/>
+      <c r="C185" s="57"/>
+      <c r="D185" s="58"/>
+      <c r="E185" s="58"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="59"/>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="58"/>
-      <c r="C186" s="58"/>
-      <c r="D186" s="59"/>
-      <c r="E186" s="59"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="60"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="57"/>
+      <c r="G186" s="59"/>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="58"/>
-      <c r="C187" s="58"/>
-      <c r="D187" s="59"/>
-      <c r="E187" s="59"/>
-      <c r="F187" s="58"/>
-      <c r="G187" s="60"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="58"/>
+      <c r="E187" s="58"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="59"/>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="58"/>
-      <c r="C188" s="58"/>
-      <c r="D188" s="59"/>
-      <c r="E188" s="59"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="60"/>
+      <c r="B188" s="57"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="57"/>
+      <c r="G188" s="59"/>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="58"/>
-      <c r="C189" s="58"/>
-      <c r="D189" s="59"/>
-      <c r="E189" s="59"/>
-      <c r="F189" s="58"/>
-      <c r="G189" s="60"/>
+      <c r="B189" s="57"/>
+      <c r="C189" s="57"/>
+      <c r="D189" s="58"/>
+      <c r="E189" s="58"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="59"/>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
-      <c r="D190" s="59"/>
-      <c r="E190" s="59"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="60"/>
+      <c r="B190" s="57"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="59"/>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="58"/>
-      <c r="C191" s="58"/>
-      <c r="D191" s="59"/>
-      <c r="E191" s="59"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="60"/>
+      <c r="B191" s="57"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="59"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="58"/>
-      <c r="C192" s="58"/>
-      <c r="D192" s="59"/>
-      <c r="E192" s="59"/>
-      <c r="F192" s="58"/>
-      <c r="G192" s="60"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="57"/>
+      <c r="G192" s="59"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="58"/>
-      <c r="C193" s="58"/>
-      <c r="D193" s="59"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="60"/>
+      <c r="B193" s="57"/>
+      <c r="C193" s="57"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="57"/>
+      <c r="G193" s="59"/>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="58"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="59"/>
-      <c r="E194" s="59"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="60"/>
+      <c r="B194" s="57"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="58"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="59"/>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="58"/>
-      <c r="C195" s="58"/>
-      <c r="D195" s="59"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="60"/>
+      <c r="B195" s="57"/>
+      <c r="C195" s="57"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="57"/>
+      <c r="G195" s="59"/>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="58"/>
-      <c r="C196" s="58"/>
-      <c r="D196" s="59"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="60"/>
+      <c r="B196" s="57"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="57"/>
+      <c r="G196" s="59"/>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="58"/>
-      <c r="C197" s="58"/>
-      <c r="D197" s="59"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="60"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="57"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="59"/>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="58"/>
-      <c r="C198" s="58"/>
-      <c r="D198" s="59"/>
-      <c r="E198" s="59"/>
-      <c r="F198" s="58"/>
-      <c r="G198" s="60"/>
+      <c r="B198" s="57"/>
+      <c r="C198" s="57"/>
+      <c r="D198" s="58"/>
+      <c r="E198" s="58"/>
+      <c r="F198" s="57"/>
+      <c r="G198" s="59"/>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="58"/>
-      <c r="C199" s="58"/>
-      <c r="D199" s="59"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="58"/>
-      <c r="G199" s="60"/>
+      <c r="B199" s="57"/>
+      <c r="C199" s="57"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="57"/>
+      <c r="G199" s="59"/>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="58"/>
-      <c r="C200" s="58"/>
-      <c r="D200" s="59"/>
-      <c r="E200" s="59"/>
-      <c r="F200" s="58"/>
-      <c r="G200" s="60"/>
+      <c r="B200" s="57"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="58"/>
+      <c r="E200" s="58"/>
+      <c r="F200" s="57"/>
+      <c r="G200" s="59"/>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="58"/>
-      <c r="C201" s="58"/>
-      <c r="D201" s="59"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="58"/>
-      <c r="G201" s="60"/>
+      <c r="B201" s="57"/>
+      <c r="C201" s="57"/>
+      <c r="D201" s="58"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="59"/>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="58"/>
-      <c r="C202" s="58"/>
-      <c r="D202" s="59"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="58"/>
-      <c r="G202" s="60"/>
+      <c r="B202" s="57"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="59"/>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="58"/>
-      <c r="C203" s="58"/>
-      <c r="D203" s="59"/>
-      <c r="E203" s="59"/>
-      <c r="F203" s="58"/>
-      <c r="G203" s="60"/>
+      <c r="B203" s="57"/>
+      <c r="C203" s="57"/>
+      <c r="D203" s="58"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="59"/>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="58"/>
-      <c r="C204" s="58"/>
-      <c r="D204" s="59"/>
-      <c r="E204" s="59"/>
-      <c r="F204" s="58"/>
-      <c r="G204" s="60"/>
+      <c r="B204" s="57"/>
+      <c r="C204" s="57"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="57"/>
+      <c r="G204" s="59"/>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="58"/>
-      <c r="C205" s="58"/>
-      <c r="D205" s="59"/>
-      <c r="E205" s="59"/>
-      <c r="F205" s="58"/>
-      <c r="G205" s="60"/>
+      <c r="B205" s="57"/>
+      <c r="C205" s="57"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="58"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="59"/>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="58"/>
-      <c r="C206" s="58"/>
-      <c r="D206" s="59"/>
-      <c r="E206" s="59"/>
-      <c r="F206" s="58"/>
-      <c r="G206" s="60"/>
+      <c r="B206" s="57"/>
+      <c r="C206" s="57"/>
+      <c r="D206" s="58"/>
+      <c r="E206" s="58"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="59"/>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="58"/>
-      <c r="C207" s="58"/>
-      <c r="D207" s="59"/>
-      <c r="E207" s="59"/>
-      <c r="F207" s="58"/>
-      <c r="G207" s="60"/>
+      <c r="B207" s="57"/>
+      <c r="C207" s="57"/>
+      <c r="D207" s="58"/>
+      <c r="E207" s="58"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="59"/>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="58"/>
-      <c r="C208" s="58"/>
-      <c r="D208" s="59"/>
-      <c r="E208" s="59"/>
-      <c r="F208" s="58"/>
-      <c r="G208" s="60"/>
+      <c r="B208" s="57"/>
+      <c r="C208" s="57"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="59"/>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="58"/>
-      <c r="C209" s="58"/>
-      <c r="D209" s="59"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="58"/>
-      <c r="G209" s="60"/>
+      <c r="B209" s="57"/>
+      <c r="C209" s="57"/>
+      <c r="D209" s="58"/>
+      <c r="E209" s="58"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="59"/>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="58"/>
-      <c r="C210" s="58"/>
-      <c r="D210" s="59"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="58"/>
-      <c r="G210" s="60"/>
+      <c r="B210" s="57"/>
+      <c r="C210" s="57"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="59"/>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="58"/>
-      <c r="C211" s="58"/>
-      <c r="D211" s="59"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="58"/>
-      <c r="G211" s="60"/>
+      <c r="B211" s="57"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="58"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="59"/>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="58"/>
-      <c r="C212" s="58"/>
-      <c r="D212" s="59"/>
-      <c r="E212" s="59"/>
-      <c r="F212" s="58"/>
-      <c r="G212" s="60"/>
+      <c r="B212" s="57"/>
+      <c r="C212" s="57"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="58"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="59"/>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="58"/>
-      <c r="C213" s="58"/>
-      <c r="D213" s="59"/>
-      <c r="E213" s="59"/>
-      <c r="F213" s="58"/>
-      <c r="G213" s="60"/>
+      <c r="B213" s="57"/>
+      <c r="C213" s="57"/>
+      <c r="D213" s="58"/>
+      <c r="E213" s="58"/>
+      <c r="F213" s="57"/>
+      <c r="G213" s="59"/>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="58"/>
-      <c r="C214" s="58"/>
-      <c r="D214" s="59"/>
-      <c r="E214" s="59"/>
-      <c r="F214" s="58"/>
-      <c r="G214" s="60"/>
+      <c r="B214" s="57"/>
+      <c r="C214" s="57"/>
+      <c r="D214" s="58"/>
+      <c r="E214" s="58"/>
+      <c r="F214" s="57"/>
+      <c r="G214" s="59"/>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="58"/>
-      <c r="C215" s="58"/>
-      <c r="D215" s="59"/>
-      <c r="E215" s="59"/>
-      <c r="F215" s="58"/>
-      <c r="G215" s="60"/>
+      <c r="B215" s="57"/>
+      <c r="C215" s="57"/>
+      <c r="D215" s="58"/>
+      <c r="E215" s="58"/>
+      <c r="F215" s="57"/>
+      <c r="G215" s="59"/>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="58"/>
-      <c r="C216" s="58"/>
-      <c r="D216" s="59"/>
-      <c r="E216" s="59"/>
-      <c r="F216" s="58"/>
-      <c r="G216" s="60"/>
+      <c r="B216" s="57"/>
+      <c r="C216" s="57"/>
+      <c r="D216" s="58"/>
+      <c r="E216" s="58"/>
+      <c r="F216" s="57"/>
+      <c r="G216" s="59"/>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="58"/>
-      <c r="C217" s="58"/>
-      <c r="D217" s="59"/>
-      <c r="E217" s="59"/>
-      <c r="F217" s="58"/>
-      <c r="G217" s="60"/>
+      <c r="B217" s="57"/>
+      <c r="C217" s="57"/>
+      <c r="D217" s="58"/>
+      <c r="E217" s="58"/>
+      <c r="F217" s="57"/>
+      <c r="G217" s="59"/>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="58"/>
-      <c r="C218" s="58"/>
-      <c r="D218" s="59"/>
-      <c r="E218" s="59"/>
-      <c r="F218" s="58"/>
-      <c r="G218" s="60"/>
+      <c r="B218" s="57"/>
+      <c r="C218" s="57"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="58"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="59"/>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="58"/>
-      <c r="C219" s="58"/>
-      <c r="D219" s="59"/>
-      <c r="E219" s="59"/>
-      <c r="F219" s="58"/>
-      <c r="G219" s="60"/>
+      <c r="B219" s="57"/>
+      <c r="C219" s="57"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="58"/>
+      <c r="F219" s="57"/>
+      <c r="G219" s="59"/>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="58"/>
-      <c r="C220" s="58"/>
-      <c r="D220" s="59"/>
-      <c r="E220" s="59"/>
-      <c r="F220" s="58"/>
-      <c r="G220" s="60"/>
+      <c r="B220" s="57"/>
+      <c r="C220" s="57"/>
+      <c r="D220" s="58"/>
+      <c r="E220" s="58"/>
+      <c r="F220" s="57"/>
+      <c r="G220" s="59"/>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="58"/>
-      <c r="C221" s="58"/>
-      <c r="D221" s="59"/>
-      <c r="E221" s="59"/>
-      <c r="F221" s="58"/>
-      <c r="G221" s="60"/>
+      <c r="B221" s="57"/>
+      <c r="C221" s="57"/>
+      <c r="D221" s="58"/>
+      <c r="E221" s="58"/>
+      <c r="F221" s="57"/>
+      <c r="G221" s="59"/>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="58"/>
-      <c r="C222" s="58"/>
-      <c r="D222" s="59"/>
-      <c r="E222" s="59"/>
-      <c r="F222" s="58"/>
-      <c r="G222" s="60"/>
+      <c r="B222" s="57"/>
+      <c r="C222" s="57"/>
+      <c r="D222" s="58"/>
+      <c r="E222" s="58"/>
+      <c r="F222" s="57"/>
+      <c r="G222" s="59"/>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="58"/>
-      <c r="C223" s="58"/>
-      <c r="D223" s="59"/>
-      <c r="E223" s="59"/>
-      <c r="F223" s="58"/>
-      <c r="G223" s="60"/>
+      <c r="B223" s="57"/>
+      <c r="C223" s="57"/>
+      <c r="D223" s="58"/>
+      <c r="E223" s="58"/>
+      <c r="F223" s="57"/>
+      <c r="G223" s="59"/>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="58"/>
-      <c r="C224" s="58"/>
-      <c r="D224" s="59"/>
-      <c r="E224" s="59"/>
-      <c r="F224" s="58"/>
-      <c r="G224" s="60"/>
+      <c r="B224" s="57"/>
+      <c r="C224" s="57"/>
+      <c r="D224" s="58"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="57"/>
+      <c r="G224" s="59"/>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="58"/>
-      <c r="C225" s="58"/>
-      <c r="D225" s="59"/>
-      <c r="E225" s="59"/>
-      <c r="F225" s="58"/>
-      <c r="G225" s="60"/>
+      <c r="B225" s="57"/>
+      <c r="C225" s="57"/>
+      <c r="D225" s="58"/>
+      <c r="E225" s="58"/>
+      <c r="F225" s="57"/>
+      <c r="G225" s="59"/>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="58"/>
-      <c r="C226" s="58"/>
-      <c r="D226" s="59"/>
-      <c r="E226" s="59"/>
-      <c r="F226" s="58"/>
-      <c r="G226" s="60"/>
+      <c r="B226" s="57"/>
+      <c r="C226" s="57"/>
+      <c r="D226" s="58"/>
+      <c r="E226" s="58"/>
+      <c r="F226" s="57"/>
+      <c r="G226" s="59"/>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="58"/>
-      <c r="C227" s="58"/>
-      <c r="D227" s="59"/>
-      <c r="E227" s="59"/>
-      <c r="F227" s="58"/>
-      <c r="G227" s="60"/>
+      <c r="B227" s="57"/>
+      <c r="C227" s="57"/>
+      <c r="D227" s="58"/>
+      <c r="E227" s="58"/>
+      <c r="F227" s="57"/>
+      <c r="G227" s="59"/>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="58"/>
-      <c r="C228" s="58"/>
-      <c r="D228" s="59"/>
-      <c r="E228" s="59"/>
-      <c r="F228" s="58"/>
-      <c r="G228" s="60"/>
+      <c r="B228" s="57"/>
+      <c r="C228" s="57"/>
+      <c r="D228" s="58"/>
+      <c r="E228" s="58"/>
+      <c r="F228" s="57"/>
+      <c r="G228" s="59"/>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="58"/>
-      <c r="C229" s="58"/>
-      <c r="D229" s="59"/>
-      <c r="E229" s="59"/>
-      <c r="F229" s="58"/>
-      <c r="G229" s="60"/>
+      <c r="B229" s="57"/>
+      <c r="C229" s="57"/>
+      <c r="D229" s="58"/>
+      <c r="E229" s="58"/>
+      <c r="F229" s="57"/>
+      <c r="G229" s="59"/>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="58"/>
-      <c r="C230" s="58"/>
-      <c r="D230" s="59"/>
-      <c r="E230" s="59"/>
-      <c r="F230" s="58"/>
-      <c r="G230" s="60"/>
+      <c r="B230" s="57"/>
+      <c r="C230" s="57"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="58"/>
+      <c r="F230" s="57"/>
+      <c r="G230" s="59"/>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="58"/>
-      <c r="C231" s="58"/>
-      <c r="D231" s="59"/>
-      <c r="E231" s="59"/>
-      <c r="F231" s="58"/>
-      <c r="G231" s="60"/>
+      <c r="B231" s="57"/>
+      <c r="C231" s="57"/>
+      <c r="D231" s="58"/>
+      <c r="E231" s="58"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="59"/>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="58"/>
-      <c r="C232" s="58"/>
-      <c r="D232" s="59"/>
-      <c r="E232" s="59"/>
-      <c r="F232" s="58"/>
-      <c r="G232" s="60"/>
+      <c r="B232" s="57"/>
+      <c r="C232" s="57"/>
+      <c r="D232" s="58"/>
+      <c r="E232" s="58"/>
+      <c r="F232" s="57"/>
+      <c r="G232" s="59"/>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="58"/>
-      <c r="C233" s="58"/>
-      <c r="D233" s="59"/>
-      <c r="E233" s="59"/>
-      <c r="F233" s="58"/>
-      <c r="G233" s="60"/>
+      <c r="B233" s="57"/>
+      <c r="C233" s="57"/>
+      <c r="D233" s="58"/>
+      <c r="E233" s="58"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="59"/>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="58"/>
-      <c r="C234" s="58"/>
-      <c r="D234" s="59"/>
-      <c r="E234" s="59"/>
-      <c r="F234" s="58"/>
-      <c r="G234" s="60"/>
+      <c r="B234" s="57"/>
+      <c r="C234" s="57"/>
+      <c r="D234" s="58"/>
+      <c r="E234" s="58"/>
+      <c r="F234" s="57"/>
+      <c r="G234" s="59"/>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="58"/>
-      <c r="C235" s="58"/>
-      <c r="D235" s="59"/>
-      <c r="E235" s="59"/>
-      <c r="F235" s="58"/>
-      <c r="G235" s="60"/>
+      <c r="B235" s="57"/>
+      <c r="C235" s="57"/>
+      <c r="D235" s="58"/>
+      <c r="E235" s="58"/>
+      <c r="F235" s="57"/>
+      <c r="G235" s="59"/>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="58"/>
-      <c r="C236" s="58"/>
-      <c r="D236" s="59"/>
-      <c r="E236" s="59"/>
-      <c r="F236" s="58"/>
-      <c r="G236" s="60"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="58"/>
+      <c r="E236" s="58"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="59"/>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="58"/>
-      <c r="C237" s="58"/>
-      <c r="D237" s="59"/>
-      <c r="E237" s="59"/>
-      <c r="F237" s="58"/>
-      <c r="G237" s="60"/>
+      <c r="B237" s="57"/>
+      <c r="C237" s="57"/>
+      <c r="D237" s="58"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="57"/>
+      <c r="G237" s="59"/>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="58"/>
-      <c r="C238" s="58"/>
-      <c r="D238" s="59"/>
-      <c r="E238" s="59"/>
-      <c r="F238" s="58"/>
-      <c r="G238" s="60"/>
+      <c r="B238" s="57"/>
+      <c r="C238" s="57"/>
+      <c r="D238" s="58"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="57"/>
+      <c r="G238" s="59"/>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="58"/>
-      <c r="C239" s="58"/>
-      <c r="D239" s="59"/>
-      <c r="E239" s="59"/>
-      <c r="F239" s="58"/>
-      <c r="G239" s="60"/>
+      <c r="B239" s="57"/>
+      <c r="C239" s="57"/>
+      <c r="D239" s="58"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="57"/>
+      <c r="G239" s="59"/>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="58"/>
-      <c r="C240" s="58"/>
-      <c r="D240" s="59"/>
-      <c r="E240" s="59"/>
-      <c r="F240" s="58"/>
-      <c r="G240" s="60"/>
+      <c r="B240" s="57"/>
+      <c r="C240" s="57"/>
+      <c r="D240" s="58"/>
+      <c r="E240" s="58"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="59"/>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="58"/>
-      <c r="C241" s="58"/>
-      <c r="D241" s="59"/>
-      <c r="E241" s="59"/>
-      <c r="F241" s="58"/>
-      <c r="G241" s="60"/>
+      <c r="B241" s="57"/>
+      <c r="C241" s="57"/>
+      <c r="D241" s="58"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="57"/>
+      <c r="G241" s="59"/>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="58"/>
-      <c r="C242" s="58"/>
-      <c r="D242" s="59"/>
-      <c r="E242" s="59"/>
-      <c r="F242" s="58"/>
-      <c r="G242" s="60"/>
+      <c r="B242" s="57"/>
+      <c r="C242" s="57"/>
+      <c r="D242" s="58"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="57"/>
+      <c r="G242" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G206" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -5361,13 +5389,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -5377,7 +5405,7 @@
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5592,13 +5620,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
@@ -5630,18 +5658,18 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="103"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="37"/>
       <c r="H13" s="37"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IfkovichJak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PXPR---projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7EDC08-AC9B-4AFA-951C-56412B25A6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77DFF01-CF37-49BC-B538-E0904586E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
     <numFmt numFmtId="166" formatCode="0%_);\(0%\)"/>
     <numFmt numFmtId="167" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -698,6 +698,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1047,7 +1052,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1261,9 +1266,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1282,44 +1340,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1339,20 +1359,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2066,13 +2077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
@@ -2083,28 +2094,28 @@
       <c r="A3" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="84"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="84"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="84"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
@@ -2141,53 +2152,53 @@
       <c r="A13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="68"/>
@@ -2249,45 +2260,45 @@
       <c r="B26" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
@@ -2343,61 +2354,61 @@
       <c r="B40" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="103"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="103"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="103"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="84"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="103"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
@@ -2409,10 +2420,10 @@
       <c r="C48" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="87"/>
+      <c r="E48" s="88"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="s">
@@ -2420,38 +2431,38 @@
       </c>
       <c r="B49" s="75"/>
       <c r="C49" s="65"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="75"/>
       <c r="C50" s="65"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="65"/>
       <c r="C51" s="65"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="65"/>
       <c r="C52" s="65"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="65"/>
       <c r="C53" s="65"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
@@ -2474,30 +2485,35 @@
       <c r="C57" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="98" t="s">
+      <c r="D57" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="99"/>
+      <c r="E57" s="86"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="99"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="86"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="99"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C40:E40"/>
@@ -2508,16 +2524,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2532,11 +2543,11 @@
   </sheetPr>
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2960,19 +2971,19 @@
       <c r="B15" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="112" t="s">
         <v>101</v>
       </c>
       <c r="H15" s="40" t="s">
@@ -3026,15 +3037,15 @@
       <c r="B16" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="113" t="s">
         <v>106</v>
       </c>
       <c r="H16" s="41"/>
@@ -3064,11 +3075,11 @@
       <c r="B17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
@@ -3215,7 +3226,7 @@
   </sheetPr>
   <dimension ref="A2:G242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
@@ -3235,21 +3246,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
       <c r="E3" s="43"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
@@ -3297,7 +3308,7 @@
       <c r="D6" s="49">
         <v>45566</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="83">
         <v>45573</v>
       </c>
       <c r="F6" s="48"/>
@@ -5389,13 +5400,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -5620,13 +5631,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
@@ -5658,18 +5669,18 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="37"/>
       <c r="H13" s="37"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="106" t="s">
+      <c r="D14" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PXPR---projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77DFF01-CF37-49BC-B538-E0904586E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDC841-112C-47F0-965B-0ACF265251D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -1281,65 +1281,71 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1358,12 +1364,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2077,13 +2077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
@@ -2094,28 +2094,28 @@
       <c r="A3" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
@@ -2152,53 +2152,53 @@
       <c r="A13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="68"/>
@@ -2260,45 +2260,45 @@
       <c r="B26" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="100" t="s">
+      <c r="C27" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
@@ -2354,61 +2354,61 @@
       <c r="B40" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="103"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="91"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
@@ -2420,10 +2420,10 @@
       <c r="C48" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="88"/>
+      <c r="E48" s="94"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="s">
@@ -2431,38 +2431,38 @@
       </c>
       <c r="B49" s="75"/>
       <c r="C49" s="65"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="75"/>
       <c r="C50" s="65"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="65"/>
       <c r="C51" s="65"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="65"/>
       <c r="C52" s="65"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="65"/>
       <c r="C53" s="65"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
@@ -2485,25 +2485,40 @@
       <c r="C57" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D57" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="86"/>
+      <c r="E57" s="106"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="86"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="106"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="86"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B13:E16"/>
+    <mergeCell ref="B17:E19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -2514,21 +2529,6 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B13:E16"/>
-    <mergeCell ref="B17:E19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2547,7 +2547,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2983,7 +2983,7 @@
       <c r="F15" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="84" t="s">
         <v>101</v>
       </c>
       <c r="H15" s="40" t="s">
@@ -3045,10 +3045,12 @@
       <c r="F16" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="113" t="s">
+      <c r="G16" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="41" t="s">
+        <v>106</v>
+      </c>
       <c r="I16" s="41" t="s">
         <v>107</v>
       </c>
@@ -3246,21 +3248,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="43"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
@@ -5400,13 +5402,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -5631,13 +5633,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
@@ -5669,18 +5671,18 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="37"/>
       <c r="H13" s="37"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PXPR---projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDC841-112C-47F0-965B-0ACF265251D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69861250-7666-4E1F-BA50-D98FC5F50792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>Téma</t>
   </si>
   <si>
-    <t>Týdení projektový status</t>
-  </si>
-  <si>
     <t>Stav projektu:</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Jakub</t>
+  </si>
+  <si>
+    <t>Týdenní projektový status</t>
   </si>
 </sst>
 </file>
@@ -1290,6 +1290,44 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1308,44 +1346,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2077,13 +2077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="86"/>
     </row>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="86"/>
     </row>
@@ -2113,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="86"/>
     </row>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -2152,53 +2152,53 @@
       <c r="A13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
+      <c r="B13" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
+      <c r="B17" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="68"/>
@@ -2214,15 +2214,15 @@
         <v>10</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="67">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="67">
         <v>0</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="67">
         <v>0</v>
@@ -2260,45 +2260,45 @@
       <c r="B26" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
@@ -2308,12 +2308,12 @@
         <v>15</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="71">
         <v>45552</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="72">
         <v>45615</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="72">
         <v>45685</v>
@@ -2354,80 +2354,80 @@
       <c r="B40" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="91"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91"/>
+        <v>88</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91"/>
+        <v>89</v>
+      </c>
+      <c r="C43" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="C48" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="D48" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="94"/>
+      <c r="E48" s="90"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="75"/>
       <c r="C49" s="65"/>
@@ -2466,49 +2466,54 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="C56" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="D56" s="66" t="s">
         <v>48</v>
-      </c>
-      <c r="D56" s="66" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="D57" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="106"/>
+      <c r="E57" s="88"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="106"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="88"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="106"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C40:E40"/>
@@ -2519,16 +2524,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2543,7 +2543,7 @@
   </sheetPr>
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
@@ -2562,7 +2562,7 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -2616,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" s="3">
         <v>9</v>
@@ -2646,7 +2646,7 @@
         <v>17</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -2933,7 +2933,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>35</v>
@@ -2963,103 +2963,103 @@
         <v>35</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="V15" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="R15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="S15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="T15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="U15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="80"/>
       <c r="E16" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="H16" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="85" t="s">
+      <c r="I16" s="41" t="s">
         <v>106</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>107</v>
       </c>
       <c r="J16" s="41"/>
       <c r="K16" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -3075,7 +3075,7 @@
     <row r="17" spans="1:22" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="79"/>
@@ -3088,34 +3088,34 @@
       <c r="K17" s="40"/>
       <c r="L17" s="11"/>
       <c r="M17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="O17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="P17" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="Q17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="V17" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="R15" sqref="R15:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3249,7 +3249,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="107"/>
       <c r="D2" s="107"/>
@@ -3275,21 +3275,21 @@
         <v>22</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="49">
         <v>45552</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="49">
         <v>45566</v>
@@ -3320,15 +3320,17 @@
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="49">
         <v>45580</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="83">
+        <v>45587</v>
+      </c>
       <c r="F7" s="48"/>
       <c r="G7" s="51">
         <v>0</v>
@@ -3336,10 +3338,10 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="49">
         <v>45594</v>
@@ -3352,10 +3354,10 @@
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>122</v>
       </c>
       <c r="D9" s="49">
         <v>45608</v>
@@ -3368,10 +3370,10 @@
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="49">
         <v>45622</v>
@@ -3384,10 +3386,10 @@
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="49">
         <v>45629</v>
@@ -3400,10 +3402,10 @@
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="49">
         <v>45636</v>
@@ -3416,10 +3418,10 @@
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="49">
         <v>45678</v>
@@ -5388,8 +5390,8 @@
   </sheetPr>
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K6:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5403,7 +5405,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B2" s="110" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C2" s="110"/>
       <c r="D2" s="110"/>
@@ -5416,10 +5418,10 @@
       </c>
       <c r="C4" s="20"/>
       <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -5429,13 +5431,13 @@
       <c r="C5" s="33"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="5"/>
@@ -5516,16 +5518,16 @@
         <v>36</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,27 +5616,27 @@
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="111"/>
       <c r="D7" s="111"/>
@@ -5650,12 +5652,12 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D10" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -5664,7 +5666,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -5672,7 +5674,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D13" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="112"/>
       <c r="F13" s="37"/>
@@ -5680,7 +5682,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D14" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="37"/>
@@ -5689,7 +5691,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D15" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PXPR---projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69861250-7666-4E1F-BA50-D98FC5F50792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85247A1-AFC2-49F4-A70E-1865C51AAE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,62 +1290,62 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2077,13 +2077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
@@ -2152,53 +2152,53 @@
       <c r="A13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="68"/>
@@ -2260,45 +2260,45 @@
       <c r="B26" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
@@ -2354,61 +2354,61 @@
       <c r="B40" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="103" t="s">
+      <c r="C41" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="103" t="s">
+      <c r="C43" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="91"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
@@ -2420,10 +2420,10 @@
       <c r="C48" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="90"/>
+      <c r="E48" s="94"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="s">
@@ -2485,25 +2485,40 @@
       <c r="C57" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="87" t="s">
+      <c r="D57" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="88"/>
+      <c r="E57" s="106"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="88"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="106"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="88"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B13:E16"/>
+    <mergeCell ref="B17:E19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -2514,21 +2529,6 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B13:E16"/>
-    <mergeCell ref="B17:E19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2544,10 +2544,10 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="14" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3230,7 +3230,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R15" sqref="R15:R16"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5510,7 +5510,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PXPR---projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85247A1-AFC2-49F4-A70E-1865C51AAE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3190D41-9FB8-4C9B-BDC2-B35091D5F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="125">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>Týdenní projektový status</t>
+  </si>
+  <si>
+    <t>5-6</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
     <numFmt numFmtId="166" formatCode="0%_);\(0%\)"/>
     <numFmt numFmtId="167" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -704,6 +707,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -773,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1015,14 +1026,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1052,7 +1076,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1103,9 +1127,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1138,12 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1281,11 +1296,14 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1358,12 +1376,19 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2060,447 +2085,447 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="63" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="63" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="63" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="63" customWidth="1"/>
-    <col min="8" max="9" width="0" style="63" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="61" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="61" hidden="1"/>
+    <col min="1" max="1" width="22" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="60" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="60" customWidth="1"/>
+    <col min="8" max="9" width="0" style="60" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="58" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="58" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="84"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="84"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="84"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="63" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="64">
         <v>0</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="64">
         <v>0</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="64">
         <v>0</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="63" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="71">
+      <c r="C34" s="68">
         <v>45552</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="69">
         <v>45615</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="69">
         <v>45685</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="71">
+      <c r="C38" s="68">
         <v>45685</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="91"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="89"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="89"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="94" t="s">
+      <c r="D48" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="94"/>
+      <c r="E48" s="92"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="75"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="63" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="C57" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="105" t="s">
+      <c r="D57" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="106"/>
+      <c r="E57" s="104"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="106"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="104"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="106"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2532,7 +2557,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2544,10 +2569,10 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23:B24"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2561,28 +2586,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="23" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="M2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2642,7 +2667,7 @@
       <c r="T3" s="3">
         <v>16</v>
       </c>
-      <c r="U3" s="76">
+      <c r="U3" s="73">
         <v>17</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -2734,22 +2759,22 @@
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
     </row>
     <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2902,130 +2927,130 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="R14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="27" t="s">
+      <c r="T14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="27" t="s">
+      <c r="U14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="28" t="s">
+      <c r="V14" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>100</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="Q15" s="40" t="s">
+      <c r="Q15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="S15" s="40" t="s">
+      <c r="S15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="T15" s="40" t="s">
+      <c r="T15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="U15" s="40" t="s">
+      <c r="U15" s="37" t="s">
         <v>100</v>
       </c>
       <c r="V15" s="15" t="s">
@@ -3034,28 +3059,26 @@
     </row>
     <row r="16" spans="1:22" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="38"/>
+      <c r="I16" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38" t="s">
         <v>108</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -3074,18 +3097,18 @@
     </row>
     <row r="17" spans="1:22" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="11"/>
       <c r="M17" s="12" t="s">
         <v>110</v>
@@ -3216,7 +3239,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3230,2044 +3253,2042 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="42" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="42" customWidth="1"/>
-    <col min="8" max="8" width="8" style="42" customWidth="1"/>
-    <col min="9" max="10" width="0" style="42" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8" style="42"/>
+    <col min="1" max="1" width="3.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="8" style="39" customWidth="1"/>
+    <col min="9" max="10" width="0" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="46">
         <v>45552</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="51">
+      <c r="E5" s="47"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="48">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <v>45566</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="80">
         <v>45573</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="51">
+      <c r="F6" s="45"/>
+      <c r="G6" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="46">
         <v>45580</v>
       </c>
-      <c r="E7" s="83">
-        <v>45587</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="51">
+      <c r="E7" s="80"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="46">
+        <v>45594</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="48" t="s">
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="49">
-        <v>45594</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="51">
+      <c r="D9" s="46">
+        <v>45608</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="49">
-        <v>45608</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="51">
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="46">
+        <v>45622</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="48" t="s">
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="49">
-        <v>45622</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="51">
+      <c r="D11" s="46">
+        <v>45629</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="48" t="s">
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="49">
-        <v>45629</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="51">
+      <c r="D12" s="46">
+        <v>45636</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="48" t="s">
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="49">
-        <v>45636</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="51">
+      <c r="D13" s="46">
+        <v>45678</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="49">
-        <v>45678</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="51">
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="51">
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="51"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="51"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="56"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="56"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="56"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="56"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="56"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="56"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="56"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="56"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="56"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="59"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="56"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="59"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="56"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="59"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="56"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="56"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="56"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="59"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="56"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="56"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="59"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="56"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="59"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="56"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="56"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="59"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="59"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="59"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="56"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="59"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="56"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="59"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="56"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="56"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="59"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="56"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="59"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="56"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="59"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="56"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="59"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="56"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="59"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="56"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="59"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="56"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="59"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="56"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="59"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="56"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="59"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="56"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="59"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="56"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="59"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="56"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="59"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="56"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="59"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="56"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="59"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="56"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="59"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="56"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="59"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="56"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="59"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="56"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="59"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="56"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="59"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="56"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="59"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="56"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="59"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="56"/>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="59"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="56"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="59"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="56"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="59"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="56"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="59"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="56"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="59"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="56"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="59"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="56"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="59"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="56"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="59"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="56"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="59"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="56"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="59"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="56"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="59"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="56"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="59"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="56"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="59"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="56"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="59"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="56"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="59"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="56"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="59"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="56"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="59"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="56"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="57"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="59"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="56"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="59"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="56"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="59"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="56"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="59"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="56"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="59"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="56"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="59"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="56"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="59"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="56"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="59"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="56"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="59"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="56"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="59"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="56"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="59"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="56"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="59"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="56"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="59"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="56"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="59"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="56"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="59"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="56"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="59"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="56"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="59"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="56"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="59"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="56"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="59"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="56"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="59"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="56"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="59"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="56"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="59"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="56"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="59"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="56"/>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="59"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="56"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="57"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="59"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="56"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
-      <c r="C115" s="57"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="59"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="56"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="57"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="59"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="56"/>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="57"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="59"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="56"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="59"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="56"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="59"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="56"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="59"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="56"/>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="57"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="59"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="56"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="57"/>
-      <c r="C122" s="57"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="59"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="56"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="57"/>
-      <c r="C123" s="57"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="59"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="56"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="57"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="58"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="59"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="56"/>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="58"/>
-      <c r="E125" s="58"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="59"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="56"/>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="57"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="59"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="56"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="57"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="59"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="56"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="57"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="59"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="56"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="57"/>
-      <c r="G129" s="59"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="56"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="57"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="58"/>
-      <c r="E130" s="58"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="59"/>
+      <c r="B130" s="54"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="56"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="58"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="59"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="56"/>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="58"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="59"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="56"/>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="57"/>
-      <c r="C133" s="57"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="59"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="56"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="58"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="59"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="56"/>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="59"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="54"/>
+      <c r="G135" s="56"/>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="57"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="58"/>
-      <c r="F136" s="57"/>
-      <c r="G136" s="59"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="56"/>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="58"/>
-      <c r="E137" s="58"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="59"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="54"/>
+      <c r="G137" s="56"/>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="58"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="59"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="54"/>
+      <c r="G138" s="56"/>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="57"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="58"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="59"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="54"/>
+      <c r="G139" s="56"/>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="57"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="58"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="59"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="56"/>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="57"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="59"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="56"/>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="57"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="58"/>
-      <c r="E142" s="58"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="59"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="54"/>
+      <c r="D142" s="55"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="56"/>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="57"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="58"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="59"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="54"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="54"/>
+      <c r="G143" s="56"/>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="59"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="56"/>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="57"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="57"/>
-      <c r="G145" s="59"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="54"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="56"/>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="58"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="59"/>
+      <c r="B146" s="54"/>
+      <c r="C146" s="54"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="56"/>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="57"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="57"/>
-      <c r="G147" s="59"/>
+      <c r="B147" s="54"/>
+      <c r="C147" s="54"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="56"/>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="57"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="58"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="59"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="54"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="56"/>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="58"/>
-      <c r="F149" s="57"/>
-      <c r="G149" s="59"/>
+      <c r="B149" s="54"/>
+      <c r="C149" s="54"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="54"/>
+      <c r="G149" s="56"/>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="57"/>
-      <c r="C150" s="57"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="59"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="56"/>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="57"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="58"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="59"/>
+      <c r="B151" s="54"/>
+      <c r="C151" s="54"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="56"/>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="57"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="58"/>
-      <c r="F152" s="57"/>
-      <c r="G152" s="59"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="56"/>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="58"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="59"/>
+      <c r="B153" s="54"/>
+      <c r="C153" s="54"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="54"/>
+      <c r="G153" s="56"/>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="57"/>
-      <c r="C154" s="57"/>
-      <c r="D154" s="58"/>
-      <c r="E154" s="58"/>
-      <c r="F154" s="57"/>
-      <c r="G154" s="59"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="54"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="56"/>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="58"/>
-      <c r="E155" s="58"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="59"/>
+      <c r="B155" s="54"/>
+      <c r="C155" s="54"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="56"/>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="58"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="59"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="55"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="56"/>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="59"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="54"/>
+      <c r="D157" s="55"/>
+      <c r="E157" s="55"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="56"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="57"/>
-      <c r="C158" s="57"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-      <c r="F158" s="57"/>
-      <c r="G158" s="59"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="54"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="54"/>
+      <c r="G158" s="56"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="57"/>
-      <c r="C159" s="57"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="57"/>
-      <c r="G159" s="59"/>
+      <c r="B159" s="54"/>
+      <c r="C159" s="54"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="55"/>
+      <c r="F159" s="54"/>
+      <c r="G159" s="56"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="57"/>
-      <c r="C160" s="57"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="58"/>
-      <c r="F160" s="57"/>
-      <c r="G160" s="59"/>
+      <c r="B160" s="54"/>
+      <c r="C160" s="54"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="54"/>
+      <c r="G160" s="56"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="58"/>
-      <c r="F161" s="57"/>
-      <c r="G161" s="59"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="54"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="55"/>
+      <c r="F161" s="54"/>
+      <c r="G161" s="56"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="58"/>
-      <c r="F162" s="57"/>
-      <c r="G162" s="59"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="54"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="54"/>
+      <c r="G162" s="56"/>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="57"/>
-      <c r="C163" s="57"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="57"/>
-      <c r="G163" s="59"/>
+      <c r="B163" s="54"/>
+      <c r="C163" s="54"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="54"/>
+      <c r="G163" s="56"/>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="57"/>
-      <c r="C164" s="57"/>
-      <c r="D164" s="58"/>
-      <c r="E164" s="58"/>
-      <c r="F164" s="57"/>
-      <c r="G164" s="59"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="54"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="55"/>
+      <c r="F164" s="54"/>
+      <c r="G164" s="56"/>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="57"/>
-      <c r="C165" s="57"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="57"/>
-      <c r="G165" s="59"/>
+      <c r="B165" s="54"/>
+      <c r="C165" s="54"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="55"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="56"/>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="57"/>
-      <c r="C166" s="57"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="57"/>
-      <c r="G166" s="59"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="54"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="56"/>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="57"/>
-      <c r="C167" s="57"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="58"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="59"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="54"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="54"/>
+      <c r="G167" s="56"/>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="57"/>
-      <c r="C168" s="57"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="59"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="54"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="54"/>
+      <c r="G168" s="56"/>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="57"/>
-      <c r="C169" s="57"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="57"/>
-      <c r="G169" s="59"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="54"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="55"/>
+      <c r="F169" s="54"/>
+      <c r="G169" s="56"/>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="58"/>
-      <c r="F170" s="57"/>
-      <c r="G170" s="59"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="54"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="55"/>
+      <c r="F170" s="54"/>
+      <c r="G170" s="56"/>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="57"/>
-      <c r="G171" s="59"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="54"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="55"/>
+      <c r="F171" s="54"/>
+      <c r="G171" s="56"/>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="57"/>
-      <c r="C172" s="57"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="57"/>
-      <c r="G172" s="59"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="54"/>
+      <c r="G172" s="56"/>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="57"/>
-      <c r="C173" s="57"/>
-      <c r="D173" s="58"/>
-      <c r="E173" s="58"/>
-      <c r="F173" s="57"/>
-      <c r="G173" s="59"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="55"/>
+      <c r="F173" s="54"/>
+      <c r="G173" s="56"/>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="57"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="58"/>
-      <c r="F174" s="57"/>
-      <c r="G174" s="59"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="54"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="55"/>
+      <c r="F174" s="54"/>
+      <c r="G174" s="56"/>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="57"/>
-      <c r="C175" s="57"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="57"/>
-      <c r="G175" s="59"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="54"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="54"/>
+      <c r="G175" s="56"/>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="57"/>
-      <c r="C176" s="57"/>
-      <c r="D176" s="58"/>
-      <c r="E176" s="58"/>
-      <c r="F176" s="57"/>
-      <c r="G176" s="59"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="54"/>
+      <c r="G176" s="56"/>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="57"/>
-      <c r="C177" s="57"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="57"/>
-      <c r="G177" s="59"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="54"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="54"/>
+      <c r="G177" s="56"/>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="57"/>
-      <c r="C178" s="57"/>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="57"/>
-      <c r="G178" s="59"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="54"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="54"/>
+      <c r="G178" s="56"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="57"/>
-      <c r="C179" s="57"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="58"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="59"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="54"/>
+      <c r="G179" s="56"/>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="57"/>
-      <c r="C180" s="57"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="58"/>
-      <c r="F180" s="57"/>
-      <c r="G180" s="59"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="54"/>
+      <c r="G180" s="56"/>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="57"/>
-      <c r="C181" s="57"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="57"/>
-      <c r="G181" s="59"/>
+      <c r="B181" s="54"/>
+      <c r="C181" s="54"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="54"/>
+      <c r="G181" s="56"/>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="57"/>
-      <c r="C182" s="57"/>
-      <c r="D182" s="58"/>
-      <c r="E182" s="58"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="59"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="54"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="54"/>
+      <c r="G182" s="56"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="57"/>
-      <c r="C183" s="57"/>
-      <c r="D183" s="58"/>
-      <c r="E183" s="58"/>
-      <c r="F183" s="57"/>
-      <c r="G183" s="59"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="54"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="54"/>
+      <c r="G183" s="56"/>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="57"/>
-      <c r="C184" s="57"/>
-      <c r="D184" s="58"/>
-      <c r="E184" s="58"/>
-      <c r="F184" s="57"/>
-      <c r="G184" s="59"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="54"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="54"/>
+      <c r="G184" s="56"/>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="57"/>
-      <c r="C185" s="57"/>
-      <c r="D185" s="58"/>
-      <c r="E185" s="58"/>
-      <c r="F185" s="57"/>
-      <c r="G185" s="59"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="54"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="54"/>
+      <c r="G185" s="56"/>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="57"/>
-      <c r="C186" s="57"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="57"/>
-      <c r="G186" s="59"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="54"/>
+      <c r="G186" s="56"/>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="57"/>
-      <c r="C187" s="57"/>
-      <c r="D187" s="58"/>
-      <c r="E187" s="58"/>
-      <c r="F187" s="57"/>
-      <c r="G187" s="59"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="54"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="54"/>
+      <c r="G187" s="56"/>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="57"/>
-      <c r="C188" s="57"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="57"/>
-      <c r="G188" s="59"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="54"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="54"/>
+      <c r="G188" s="56"/>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="57"/>
-      <c r="C189" s="57"/>
-      <c r="D189" s="58"/>
-      <c r="E189" s="58"/>
-      <c r="F189" s="57"/>
-      <c r="G189" s="59"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="54"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="54"/>
+      <c r="G189" s="56"/>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="57"/>
-      <c r="C190" s="57"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="57"/>
-      <c r="G190" s="59"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="54"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="54"/>
+      <c r="G190" s="56"/>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="57"/>
-      <c r="C191" s="57"/>
-      <c r="D191" s="58"/>
-      <c r="E191" s="58"/>
-      <c r="F191" s="57"/>
-      <c r="G191" s="59"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="54"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="55"/>
+      <c r="F191" s="54"/>
+      <c r="G191" s="56"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="57"/>
-      <c r="C192" s="57"/>
-      <c r="D192" s="58"/>
-      <c r="E192" s="58"/>
-      <c r="F192" s="57"/>
-      <c r="G192" s="59"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="54"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="54"/>
+      <c r="G192" s="56"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="57"/>
-      <c r="C193" s="57"/>
-      <c r="D193" s="58"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="57"/>
-      <c r="G193" s="59"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="54"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="54"/>
+      <c r="G193" s="56"/>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="57"/>
-      <c r="C194" s="57"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="58"/>
-      <c r="F194" s="57"/>
-      <c r="G194" s="59"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="54"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="54"/>
+      <c r="G194" s="56"/>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="57"/>
-      <c r="C195" s="57"/>
-      <c r="D195" s="58"/>
-      <c r="E195" s="58"/>
-      <c r="F195" s="57"/>
-      <c r="G195" s="59"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="54"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="54"/>
+      <c r="G195" s="56"/>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="57"/>
-      <c r="C196" s="57"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="57"/>
-      <c r="G196" s="59"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="54"/>
+      <c r="G196" s="56"/>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="57"/>
-      <c r="C197" s="57"/>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="57"/>
-      <c r="G197" s="59"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="56"/>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="57"/>
-      <c r="C198" s="57"/>
-      <c r="D198" s="58"/>
-      <c r="E198" s="58"/>
-      <c r="F198" s="57"/>
-      <c r="G198" s="59"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="54"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="54"/>
+      <c r="G198" s="56"/>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="57"/>
-      <c r="C199" s="57"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="57"/>
-      <c r="G199" s="59"/>
+      <c r="B199" s="54"/>
+      <c r="C199" s="54"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="54"/>
+      <c r="G199" s="56"/>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="57"/>
-      <c r="C200" s="57"/>
-      <c r="D200" s="58"/>
-      <c r="E200" s="58"/>
-      <c r="F200" s="57"/>
-      <c r="G200" s="59"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="54"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="55"/>
+      <c r="F200" s="54"/>
+      <c r="G200" s="56"/>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="57"/>
-      <c r="C201" s="57"/>
-      <c r="D201" s="58"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="57"/>
-      <c r="G201" s="59"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="54"/>
+      <c r="D201" s="55"/>
+      <c r="E201" s="55"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="56"/>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="57"/>
-      <c r="C202" s="57"/>
-      <c r="D202" s="58"/>
-      <c r="E202" s="58"/>
-      <c r="F202" s="57"/>
-      <c r="G202" s="59"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="54"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="55"/>
+      <c r="F202" s="54"/>
+      <c r="G202" s="56"/>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="57"/>
-      <c r="C203" s="57"/>
-      <c r="D203" s="58"/>
-      <c r="E203" s="58"/>
-      <c r="F203" s="57"/>
-      <c r="G203" s="59"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="55"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="54"/>
+      <c r="G203" s="56"/>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="57"/>
-      <c r="C204" s="57"/>
-      <c r="D204" s="58"/>
-      <c r="E204" s="58"/>
-      <c r="F204" s="57"/>
-      <c r="G204" s="59"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="54"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="55"/>
+      <c r="F204" s="54"/>
+      <c r="G204" s="56"/>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="57"/>
-      <c r="C205" s="57"/>
-      <c r="D205" s="58"/>
-      <c r="E205" s="58"/>
-      <c r="F205" s="57"/>
-      <c r="G205" s="59"/>
+      <c r="B205" s="54"/>
+      <c r="C205" s="54"/>
+      <c r="D205" s="55"/>
+      <c r="E205" s="55"/>
+      <c r="F205" s="54"/>
+      <c r="G205" s="56"/>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="57"/>
-      <c r="C206" s="57"/>
-      <c r="D206" s="58"/>
-      <c r="E206" s="58"/>
-      <c r="F206" s="57"/>
-      <c r="G206" s="59"/>
+      <c r="B206" s="54"/>
+      <c r="C206" s="54"/>
+      <c r="D206" s="55"/>
+      <c r="E206" s="55"/>
+      <c r="F206" s="54"/>
+      <c r="G206" s="56"/>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="57"/>
-      <c r="C207" s="57"/>
-      <c r="D207" s="58"/>
-      <c r="E207" s="58"/>
-      <c r="F207" s="57"/>
-      <c r="G207" s="59"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="54"/>
+      <c r="D207" s="55"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="54"/>
+      <c r="G207" s="56"/>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="57"/>
-      <c r="C208" s="57"/>
-      <c r="D208" s="58"/>
-      <c r="E208" s="58"/>
-      <c r="F208" s="57"/>
-      <c r="G208" s="59"/>
+      <c r="B208" s="54"/>
+      <c r="C208" s="54"/>
+      <c r="D208" s="55"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="54"/>
+      <c r="G208" s="56"/>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="57"/>
-      <c r="C209" s="57"/>
-      <c r="D209" s="58"/>
-      <c r="E209" s="58"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="59"/>
+      <c r="B209" s="54"/>
+      <c r="C209" s="54"/>
+      <c r="D209" s="55"/>
+      <c r="E209" s="55"/>
+      <c r="F209" s="54"/>
+      <c r="G209" s="56"/>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="57"/>
-      <c r="C210" s="57"/>
-      <c r="D210" s="58"/>
-      <c r="E210" s="58"/>
-      <c r="F210" s="57"/>
-      <c r="G210" s="59"/>
+      <c r="B210" s="54"/>
+      <c r="C210" s="54"/>
+      <c r="D210" s="55"/>
+      <c r="E210" s="55"/>
+      <c r="F210" s="54"/>
+      <c r="G210" s="56"/>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="57"/>
-      <c r="C211" s="57"/>
-      <c r="D211" s="58"/>
-      <c r="E211" s="58"/>
-      <c r="F211" s="57"/>
-      <c r="G211" s="59"/>
+      <c r="B211" s="54"/>
+      <c r="C211" s="54"/>
+      <c r="D211" s="55"/>
+      <c r="E211" s="55"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="56"/>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="57"/>
-      <c r="C212" s="57"/>
-      <c r="D212" s="58"/>
-      <c r="E212" s="58"/>
-      <c r="F212" s="57"/>
-      <c r="G212" s="59"/>
+      <c r="B212" s="54"/>
+      <c r="C212" s="54"/>
+      <c r="D212" s="55"/>
+      <c r="E212" s="55"/>
+      <c r="F212" s="54"/>
+      <c r="G212" s="56"/>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="57"/>
-      <c r="C213" s="57"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="58"/>
-      <c r="F213" s="57"/>
-      <c r="G213" s="59"/>
+      <c r="B213" s="54"/>
+      <c r="C213" s="54"/>
+      <c r="D213" s="55"/>
+      <c r="E213" s="55"/>
+      <c r="F213" s="54"/>
+      <c r="G213" s="56"/>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="57"/>
-      <c r="C214" s="57"/>
-      <c r="D214" s="58"/>
-      <c r="E214" s="58"/>
-      <c r="F214" s="57"/>
-      <c r="G214" s="59"/>
+      <c r="B214" s="54"/>
+      <c r="C214" s="54"/>
+      <c r="D214" s="55"/>
+      <c r="E214" s="55"/>
+      <c r="F214" s="54"/>
+      <c r="G214" s="56"/>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="57"/>
-      <c r="C215" s="57"/>
-      <c r="D215" s="58"/>
-      <c r="E215" s="58"/>
-      <c r="F215" s="57"/>
-      <c r="G215" s="59"/>
+      <c r="B215" s="54"/>
+      <c r="C215" s="54"/>
+      <c r="D215" s="55"/>
+      <c r="E215" s="55"/>
+      <c r="F215" s="54"/>
+      <c r="G215" s="56"/>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="57"/>
-      <c r="C216" s="57"/>
-      <c r="D216" s="58"/>
-      <c r="E216" s="58"/>
-      <c r="F216" s="57"/>
-      <c r="G216" s="59"/>
+      <c r="B216" s="54"/>
+      <c r="C216" s="54"/>
+      <c r="D216" s="55"/>
+      <c r="E216" s="55"/>
+      <c r="F216" s="54"/>
+      <c r="G216" s="56"/>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="57"/>
-      <c r="C217" s="57"/>
-      <c r="D217" s="58"/>
-      <c r="E217" s="58"/>
-      <c r="F217" s="57"/>
-      <c r="G217" s="59"/>
+      <c r="B217" s="54"/>
+      <c r="C217" s="54"/>
+      <c r="D217" s="55"/>
+      <c r="E217" s="55"/>
+      <c r="F217" s="54"/>
+      <c r="G217" s="56"/>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="57"/>
-      <c r="C218" s="57"/>
-      <c r="D218" s="58"/>
-      <c r="E218" s="58"/>
-      <c r="F218" s="57"/>
-      <c r="G218" s="59"/>
+      <c r="B218" s="54"/>
+      <c r="C218" s="54"/>
+      <c r="D218" s="55"/>
+      <c r="E218" s="55"/>
+      <c r="F218" s="54"/>
+      <c r="G218" s="56"/>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="57"/>
-      <c r="C219" s="57"/>
-      <c r="D219" s="58"/>
-      <c r="E219" s="58"/>
-      <c r="F219" s="57"/>
-      <c r="G219" s="59"/>
+      <c r="B219" s="54"/>
+      <c r="C219" s="54"/>
+      <c r="D219" s="55"/>
+      <c r="E219" s="55"/>
+      <c r="F219" s="54"/>
+      <c r="G219" s="56"/>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="57"/>
-      <c r="C220" s="57"/>
-      <c r="D220" s="58"/>
-      <c r="E220" s="58"/>
-      <c r="F220" s="57"/>
-      <c r="G220" s="59"/>
+      <c r="B220" s="54"/>
+      <c r="C220" s="54"/>
+      <c r="D220" s="55"/>
+      <c r="E220" s="55"/>
+      <c r="F220" s="54"/>
+      <c r="G220" s="56"/>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="57"/>
-      <c r="C221" s="57"/>
-      <c r="D221" s="58"/>
-      <c r="E221" s="58"/>
-      <c r="F221" s="57"/>
-      <c r="G221" s="59"/>
+      <c r="B221" s="54"/>
+      <c r="C221" s="54"/>
+      <c r="D221" s="55"/>
+      <c r="E221" s="55"/>
+      <c r="F221" s="54"/>
+      <c r="G221" s="56"/>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="57"/>
-      <c r="C222" s="57"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="58"/>
-      <c r="F222" s="57"/>
-      <c r="G222" s="59"/>
+      <c r="B222" s="54"/>
+      <c r="C222" s="54"/>
+      <c r="D222" s="55"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="54"/>
+      <c r="G222" s="56"/>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="57"/>
-      <c r="C223" s="57"/>
-      <c r="D223" s="58"/>
-      <c r="E223" s="58"/>
-      <c r="F223" s="57"/>
-      <c r="G223" s="59"/>
+      <c r="B223" s="54"/>
+      <c r="C223" s="54"/>
+      <c r="D223" s="55"/>
+      <c r="E223" s="55"/>
+      <c r="F223" s="54"/>
+      <c r="G223" s="56"/>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="57"/>
-      <c r="C224" s="57"/>
-      <c r="D224" s="58"/>
-      <c r="E224" s="58"/>
-      <c r="F224" s="57"/>
-      <c r="G224" s="59"/>
+      <c r="B224" s="54"/>
+      <c r="C224" s="54"/>
+      <c r="D224" s="55"/>
+      <c r="E224" s="55"/>
+      <c r="F224" s="54"/>
+      <c r="G224" s="56"/>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="57"/>
-      <c r="C225" s="57"/>
-      <c r="D225" s="58"/>
-      <c r="E225" s="58"/>
-      <c r="F225" s="57"/>
-      <c r="G225" s="59"/>
+      <c r="B225" s="54"/>
+      <c r="C225" s="54"/>
+      <c r="D225" s="55"/>
+      <c r="E225" s="55"/>
+      <c r="F225" s="54"/>
+      <c r="G225" s="56"/>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="57"/>
-      <c r="C226" s="57"/>
-      <c r="D226" s="58"/>
-      <c r="E226" s="58"/>
-      <c r="F226" s="57"/>
-      <c r="G226" s="59"/>
+      <c r="B226" s="54"/>
+      <c r="C226" s="54"/>
+      <c r="D226" s="55"/>
+      <c r="E226" s="55"/>
+      <c r="F226" s="54"/>
+      <c r="G226" s="56"/>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="57"/>
-      <c r="C227" s="57"/>
-      <c r="D227" s="58"/>
-      <c r="E227" s="58"/>
-      <c r="F227" s="57"/>
-      <c r="G227" s="59"/>
+      <c r="B227" s="54"/>
+      <c r="C227" s="54"/>
+      <c r="D227" s="55"/>
+      <c r="E227" s="55"/>
+      <c r="F227" s="54"/>
+      <c r="G227" s="56"/>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="57"/>
-      <c r="C228" s="57"/>
-      <c r="D228" s="58"/>
-      <c r="E228" s="58"/>
-      <c r="F228" s="57"/>
-      <c r="G228" s="59"/>
+      <c r="B228" s="54"/>
+      <c r="C228" s="54"/>
+      <c r="D228" s="55"/>
+      <c r="E228" s="55"/>
+      <c r="F228" s="54"/>
+      <c r="G228" s="56"/>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="57"/>
-      <c r="C229" s="57"/>
-      <c r="D229" s="58"/>
-      <c r="E229" s="58"/>
-      <c r="F229" s="57"/>
-      <c r="G229" s="59"/>
+      <c r="B229" s="54"/>
+      <c r="C229" s="54"/>
+      <c r="D229" s="55"/>
+      <c r="E229" s="55"/>
+      <c r="F229" s="54"/>
+      <c r="G229" s="56"/>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="57"/>
-      <c r="C230" s="57"/>
-      <c r="D230" s="58"/>
-      <c r="E230" s="58"/>
-      <c r="F230" s="57"/>
-      <c r="G230" s="59"/>
+      <c r="B230" s="54"/>
+      <c r="C230" s="54"/>
+      <c r="D230" s="55"/>
+      <c r="E230" s="55"/>
+      <c r="F230" s="54"/>
+      <c r="G230" s="56"/>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="57"/>
-      <c r="C231" s="57"/>
-      <c r="D231" s="58"/>
-      <c r="E231" s="58"/>
-      <c r="F231" s="57"/>
-      <c r="G231" s="59"/>
+      <c r="B231" s="54"/>
+      <c r="C231" s="54"/>
+      <c r="D231" s="55"/>
+      <c r="E231" s="55"/>
+      <c r="F231" s="54"/>
+      <c r="G231" s="56"/>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="57"/>
-      <c r="C232" s="57"/>
-      <c r="D232" s="58"/>
-      <c r="E232" s="58"/>
-      <c r="F232" s="57"/>
-      <c r="G232" s="59"/>
+      <c r="B232" s="54"/>
+      <c r="C232" s="54"/>
+      <c r="D232" s="55"/>
+      <c r="E232" s="55"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="56"/>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="57"/>
-      <c r="C233" s="57"/>
-      <c r="D233" s="58"/>
-      <c r="E233" s="58"/>
-      <c r="F233" s="57"/>
-      <c r="G233" s="59"/>
+      <c r="B233" s="54"/>
+      <c r="C233" s="54"/>
+      <c r="D233" s="55"/>
+      <c r="E233" s="55"/>
+      <c r="F233" s="54"/>
+      <c r="G233" s="56"/>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="57"/>
-      <c r="C234" s="57"/>
-      <c r="D234" s="58"/>
-      <c r="E234" s="58"/>
-      <c r="F234" s="57"/>
-      <c r="G234" s="59"/>
+      <c r="B234" s="54"/>
+      <c r="C234" s="54"/>
+      <c r="D234" s="55"/>
+      <c r="E234" s="55"/>
+      <c r="F234" s="54"/>
+      <c r="G234" s="56"/>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="57"/>
-      <c r="C235" s="57"/>
-      <c r="D235" s="58"/>
-      <c r="E235" s="58"/>
-      <c r="F235" s="57"/>
-      <c r="G235" s="59"/>
+      <c r="B235" s="54"/>
+      <c r="C235" s="54"/>
+      <c r="D235" s="55"/>
+      <c r="E235" s="55"/>
+      <c r="F235" s="54"/>
+      <c r="G235" s="56"/>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="57"/>
-      <c r="C236" s="57"/>
-      <c r="D236" s="58"/>
-      <c r="E236" s="58"/>
-      <c r="F236" s="57"/>
-      <c r="G236" s="59"/>
+      <c r="B236" s="54"/>
+      <c r="C236" s="54"/>
+      <c r="D236" s="55"/>
+      <c r="E236" s="55"/>
+      <c r="F236" s="54"/>
+      <c r="G236" s="56"/>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="57"/>
-      <c r="C237" s="57"/>
-      <c r="D237" s="58"/>
-      <c r="E237" s="58"/>
-      <c r="F237" s="57"/>
-      <c r="G237" s="59"/>
+      <c r="B237" s="54"/>
+      <c r="C237" s="54"/>
+      <c r="D237" s="55"/>
+      <c r="E237" s="55"/>
+      <c r="F237" s="54"/>
+      <c r="G237" s="56"/>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="57"/>
-      <c r="C238" s="57"/>
-      <c r="D238" s="58"/>
-      <c r="E238" s="58"/>
-      <c r="F238" s="57"/>
-      <c r="G238" s="59"/>
+      <c r="B238" s="54"/>
+      <c r="C238" s="54"/>
+      <c r="D238" s="55"/>
+      <c r="E238" s="55"/>
+      <c r="F238" s="54"/>
+      <c r="G238" s="56"/>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="57"/>
-      <c r="C239" s="57"/>
-      <c r="D239" s="58"/>
-      <c r="E239" s="58"/>
-      <c r="F239" s="57"/>
-      <c r="G239" s="59"/>
+      <c r="B239" s="54"/>
+      <c r="C239" s="54"/>
+      <c r="D239" s="55"/>
+      <c r="E239" s="55"/>
+      <c r="F239" s="54"/>
+      <c r="G239" s="56"/>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="57"/>
-      <c r="C240" s="57"/>
-      <c r="D240" s="58"/>
-      <c r="E240" s="58"/>
-      <c r="F240" s="57"/>
-      <c r="G240" s="59"/>
+      <c r="B240" s="54"/>
+      <c r="C240" s="54"/>
+      <c r="D240" s="55"/>
+      <c r="E240" s="55"/>
+      <c r="F240" s="54"/>
+      <c r="G240" s="56"/>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="57"/>
-      <c r="C241" s="57"/>
-      <c r="D241" s="58"/>
-      <c r="E241" s="58"/>
-      <c r="F241" s="57"/>
-      <c r="G241" s="59"/>
+      <c r="B241" s="54"/>
+      <c r="C241" s="54"/>
+      <c r="D241" s="55"/>
+      <c r="E241" s="55"/>
+      <c r="F241" s="54"/>
+      <c r="G241" s="56"/>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="57"/>
-      <c r="C242" s="57"/>
-      <c r="D242" s="58"/>
-      <c r="E242" s="58"/>
-      <c r="F242" s="57"/>
-      <c r="G242" s="59"/>
+      <c r="B242" s="54"/>
+      <c r="C242" s="54"/>
+      <c r="D242" s="55"/>
+      <c r="E242" s="55"/>
+      <c r="F242" s="54"/>
+      <c r="G242" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G206" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -5376,7 +5397,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.46" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"Tahoma,Bold"&amp;12&amp;F&amp;R&amp;"Tahoma,Bold"&amp;12&amp;D</oddHeader>
   </headerFooter>
@@ -5388,39 +5409,42 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K16" sqref="K6:K16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="16.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
     <col min="5" max="6" width="16.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="109"/>
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="57" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5428,23 +5452,29 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="83" t="s">
+        <v>124</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="21">
+        <v>45615</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20">
+        <v>45580</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -5526,75 +5556,56 @@
       <c r="E16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>105</v>
+      </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="37"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5615,7 +5626,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5635,23 +5646,23 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5659,43 +5670,43 @@
       <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="36"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zv3IcMyQ+b9d+cRrqmz5jNS2YpSgRTm3+c2/N7tYsJTncnBZ7OCH8yxv83rK0MWG+0YA6peEieWXzGf4hv/g+w==" saltValue="k830diYFyTK3yxwjP65REw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -5710,9 +5721,10 @@
     <hyperlink ref="D14" r:id="rId3" display="linkedin.com/in/jiribenedikt" xr:uid="{5D87597D-C8A6-3647-B084-05AEBD78E6D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <ignoredErrors>
     <ignoredError sqref="D15" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PXPR---projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3190D41-9FB8-4C9B-BDC2-B35091D5F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF51810-F11E-4230-8D65-1D0552D393D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -1305,9 +1305,53 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1326,44 +1370,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1383,12 +1389,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2102,13 +2102,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="70"/>
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
@@ -2119,28 +2119,28 @@
       <c r="A3" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
@@ -2177,53 +2177,53 @@
       <c r="A13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="65"/>
@@ -2285,45 +2285,45 @@
       <c r="B26" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
@@ -2379,61 +2379,61 @@
       <c r="B40" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="89"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="89"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="90" t="s">
+      <c r="C45" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
@@ -2445,10 +2445,10 @@
       <c r="C48" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="92" t="s">
+      <c r="D48" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="92"/>
+      <c r="E48" s="90"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="s">
@@ -2456,38 +2456,38 @@
       </c>
       <c r="B49" s="72"/>
       <c r="C49" s="62"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="72"/>
       <c r="C50" s="62"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="62"/>
       <c r="C51" s="62"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="62"/>
       <c r="C52" s="62"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="62"/>
       <c r="C53" s="62"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="62"/>
       <c r="C54" s="62"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
@@ -2510,30 +2510,35 @@
       <c r="C57" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D57" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="104"/>
+      <c r="E57" s="88"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="72"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="104"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="88"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="72"/>
       <c r="C59" s="72"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="104"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C40:E40"/>
@@ -2544,16 +2549,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2568,11 +2568,11 @@
   </sheetPr>
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3011,7 +3011,7 @@
       <c r="G15" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="76" t="s">
         <v>100</v>
       </c>
       <c r="I15" s="37" t="s">
@@ -3073,7 +3073,7 @@
       <c r="G16" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="38" t="s">
         <v>106</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="E17" s="77"/>
       <c r="F17" s="76"/>
       <c r="G17" s="76"/>
-      <c r="H17" s="37"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
@@ -3271,21 +3271,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="40"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
@@ -5411,7 +5411,7 @@
   </sheetPr>
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -5425,22 +5425,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="84" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="37" t="s">
@@ -5588,7 +5588,7 @@
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="85" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="37"/>
@@ -5646,13 +5646,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="35"/>
@@ -5684,18 +5684,18 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="34"/>
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="112"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PXPR---projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF51810-F11E-4230-8D65-1D0552D393D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17ECF4-5C70-42F6-A1A7-EFEC1AD03C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1314,62 +1314,62 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2102,13 +2102,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
       <c r="F1" s="70"/>
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
@@ -2177,53 +2177,53 @@
       <c r="A13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="65"/>
@@ -2285,45 +2285,45 @@
       <c r="B26" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
@@ -2379,61 +2379,61 @@
       <c r="B40" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="103" t="s">
+      <c r="C41" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="103" t="s">
+      <c r="C43" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="91"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
@@ -2445,10 +2445,10 @@
       <c r="C48" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="90"/>
+      <c r="E48" s="94"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="s">
@@ -2510,25 +2510,40 @@
       <c r="C57" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="87" t="s">
+      <c r="D57" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="88"/>
+      <c r="E57" s="106"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="72"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="88"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="106"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="72"/>
       <c r="C59" s="72"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="88"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B13:E16"/>
+    <mergeCell ref="B17:E19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -2539,21 +2554,6 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B13:E16"/>
-    <mergeCell ref="B17:E19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2572,7 +2572,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3014,13 +3014,13 @@
       <c r="H15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="76" t="s">
         <v>100</v>
       </c>
       <c r="L15" s="11" t="s">
@@ -3074,11 +3074,11 @@
         <v>105</v>
       </c>
       <c r="H16" s="79"/>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38" t="s">
+      <c r="J16" s="79"/>
+      <c r="K16" s="79" t="s">
         <v>108</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -3106,9 +3106,9 @@
       <c r="F17" s="76"/>
       <c r="G17" s="76"/>
       <c r="H17" s="76"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="11"/>
       <c r="M17" s="12" t="s">
         <v>110</v>

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PXPR---projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ifkovichjak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17ECF4-5C70-42F6-A1A7-EFEC1AD03C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A287A82-8DB2-439E-8922-9D651ADDC62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1120,9 +1120,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
@@ -1314,6 +1311,44 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1332,44 +1367,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1389,6 +1386,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2090,450 +2102,455 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="60" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="60" customWidth="1"/>
-    <col min="8" max="9" width="0" style="60" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="58" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="58" hidden="1"/>
+    <col min="1" max="1" width="22" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="59" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="59" customWidth="1"/>
+    <col min="8" max="9" width="0" style="59" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="57" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="57" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="85"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="63"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="62" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="63">
         <v>0</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="63">
         <v>0</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="63">
         <v>0</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="67">
         <v>45552</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="68">
         <v>45615</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="68">
         <v>45685</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="67">
         <v>45685</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="91"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="104"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="104"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="104"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="94" t="s">
+      <c r="D48" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="94"/>
+      <c r="E48" s="89"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="72"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="62" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C57" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="105" t="s">
+      <c r="D57" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="106"/>
+      <c r="E57" s="87"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="106"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="87"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="106"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C40:E40"/>
@@ -2544,16 +2561,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2568,11 +2580,11 @@
   </sheetPr>
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2586,28 +2598,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="M2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2667,7 +2679,7 @@
       <c r="T3" s="3">
         <v>16</v>
       </c>
-      <c r="U3" s="73">
+      <c r="U3" s="72">
         <v>17</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -2759,22 +2771,22 @@
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2927,130 +2939,130 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="26" t="s">
+      <c r="Q14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="R14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="26" t="s">
+      <c r="S14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="26" t="s">
+      <c r="T14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="26" t="s">
+      <c r="U14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="27" t="s">
+      <c r="V14" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="75" t="s">
         <v>100</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="U15" s="37" t="s">
+      <c r="U15" s="36" t="s">
         <v>100</v>
       </c>
       <c r="V15" s="15" t="s">
@@ -3058,80 +3070,80 @@
       </c>
     </row>
     <row r="16" spans="1:22" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79" t="s">
+      <c r="H16" s="78"/>
+      <c r="I16" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79" t="s">
+      <c r="J16" s="78"/>
+      <c r="K16" s="78" t="s">
         <v>108</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
       <c r="U16" s="16"/>
       <c r="V16" s="15"/>
     </row>
     <row r="17" spans="1:22" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="117" t="s">
         <v>113</v>
       </c>
       <c r="U17" s="13" t="s">
@@ -3251,2044 +3263,2042 @@
   </sheetPr>
   <dimension ref="A2:G242"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="8" style="39" customWidth="1"/>
-    <col min="9" max="10" width="0" style="39" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8" style="39"/>
+    <col min="1" max="1" width="3.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="8" style="38" customWidth="1"/>
+    <col min="9" max="10" width="0" style="38" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="38"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>45552</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="48">
-        <v>0.8</v>
+      <c r="E5" s="46"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>45566</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="79">
         <v>45573</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="48">
+      <c r="F6" s="44"/>
+      <c r="G6" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>45580</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="48">
+      <c r="E7" s="79"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>45594</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="48">
-        <v>0</v>
+      <c r="E8" s="46"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>45608</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="48">
-        <v>0</v>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>45622</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="48">
-        <v>0</v>
+      <c r="E10" s="48"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>45629</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="48">
-        <v>0</v>
+      <c r="E11" s="46"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>45636</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="48">
-        <v>0</v>
+      <c r="E12" s="46"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>45678</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="48">
-        <v>0</v>
+      <c r="E13" s="46"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="47">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="48">
-        <v>0</v>
-      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="48"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="48"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="48"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="53"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="53"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="53"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="44"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="53"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="53"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="53"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="44"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="53"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="56"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="56"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="56"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="56"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="56"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="56"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="56"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="56"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="56"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="56"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="56"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="56"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="56"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="56"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="56"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="56"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="56"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="56"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="56"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="56"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="56"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="56"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="56"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="56"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="56"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="55"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="56"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="55"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="56"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="55"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="56"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="55"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="56"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="55"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="56"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="56"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="55"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="56"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="55"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="56"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="55"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="56"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="55"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="56"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="55"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="56"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="55"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="56"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="55"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="56"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="55"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="56"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="55"/>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="56"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="55"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="56"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="55"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="56"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="55"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="56"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="55"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="56"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="55"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="56"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="55"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="56"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="55"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="54"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="56"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="55"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="56"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="55"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="54"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="56"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="55"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="55"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="56"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="55"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="55"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="56"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="55"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="56"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="55"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="56"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="55"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="56"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="55"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="55"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="54"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="56"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="55"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="54"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="56"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="55"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="54"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="56"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="55"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="56"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="55"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="55"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="54"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="56"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="55"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="56"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="55"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="56"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="55"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="54"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="56"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="55"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="56"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="55"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="56"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="55"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="54"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="56"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="55"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="54"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="56"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="55"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="54"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="56"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="55"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="56"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="55"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="56"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="55"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="54"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="56"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="55"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="56"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="55"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="54"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="56"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="55"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="54"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="56"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="55"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="54"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="56"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="55"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="54"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="56"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="55"/>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="54"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="56"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="55"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="56"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="55"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="54"/>
-      <c r="C115" s="54"/>
-      <c r="D115" s="55"/>
-      <c r="E115" s="55"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="56"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="55"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="54"/>
-      <c r="C116" s="54"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="56"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="55"/>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="54"/>
-      <c r="C117" s="54"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="55"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="56"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="55"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="54"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="56"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="55"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="54"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="56"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="55"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="54"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="56"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="54"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="55"/>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="54"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="56"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="55"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="56"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="55"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="56"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="55"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="54"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="56"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="54"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="55"/>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="54"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="56"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="55"/>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="54"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="56"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="55"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="54"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="56"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="55"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="56"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="55"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="54"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="56"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="55"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="54"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="56"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="55"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="54"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="56"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="55"/>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="56"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="55"/>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="56"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="55"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="56"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="54"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="55"/>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="54"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="56"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="55"/>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="54"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="54"/>
-      <c r="G136" s="56"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="55"/>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="54"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="55"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="56"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="54"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="55"/>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="54"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="54"/>
-      <c r="G138" s="56"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="54"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="55"/>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="56"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="54"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="55"/>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="54"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="56"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="55"/>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="54"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="56"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="54"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="55"/>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="54"/>
-      <c r="C142" s="54"/>
-      <c r="D142" s="55"/>
-      <c r="E142" s="55"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="56"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="54"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="55"/>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="54"/>
-      <c r="C143" s="54"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="56"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="55"/>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="54"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="55"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="56"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="54"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="55"/>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="54"/>
-      <c r="C145" s="54"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="56"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="55"/>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="54"/>
-      <c r="C146" s="54"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="55"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="56"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="54"/>
+      <c r="F146" s="53"/>
+      <c r="G146" s="55"/>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="54"/>
-      <c r="C147" s="54"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="55"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="56"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="55"/>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="54"/>
-      <c r="C148" s="54"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="55"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="56"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="54"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="55"/>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="54"/>
-      <c r="C149" s="54"/>
-      <c r="D149" s="55"/>
-      <c r="E149" s="55"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="56"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="53"/>
+      <c r="G149" s="55"/>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="54"/>
-      <c r="C150" s="54"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="56"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="54"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="55"/>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="54"/>
-      <c r="C151" s="54"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="55"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="56"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="53"/>
+      <c r="G151" s="55"/>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="54"/>
-      <c r="C152" s="54"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="54"/>
-      <c r="G152" s="56"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="54"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="55"/>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="54"/>
-      <c r="C153" s="54"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="55"/>
-      <c r="F153" s="54"/>
-      <c r="G153" s="56"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="55"/>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="54"/>
-      <c r="C154" s="54"/>
-      <c r="D154" s="55"/>
-      <c r="E154" s="55"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="56"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="54"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="55"/>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="54"/>
-      <c r="C155" s="54"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="55"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="56"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="53"/>
+      <c r="G155" s="55"/>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="54"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="55"/>
-      <c r="E156" s="55"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="56"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="54"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="55"/>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="54"/>
-      <c r="C157" s="54"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="55"/>
-      <c r="F157" s="54"/>
-      <c r="G157" s="56"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="55"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="54"/>
-      <c r="C158" s="54"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="55"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="56"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="54"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="55"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="54"/>
-      <c r="C159" s="54"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="56"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="54"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="55"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="54"/>
-      <c r="C160" s="54"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="55"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="56"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="54"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="55"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="54"/>
-      <c r="C161" s="54"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="55"/>
-      <c r="F161" s="54"/>
-      <c r="G161" s="56"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="54"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="55"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="54"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="55"/>
-      <c r="E162" s="55"/>
-      <c r="F162" s="54"/>
-      <c r="G162" s="56"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="53"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="54"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="55"/>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="54"/>
-      <c r="C163" s="54"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="55"/>
-      <c r="F163" s="54"/>
-      <c r="G163" s="56"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="54"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="55"/>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="54"/>
-      <c r="C164" s="54"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="55"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="56"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="54"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="55"/>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="54"/>
-      <c r="C165" s="54"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="54"/>
-      <c r="G165" s="56"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="55"/>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="54"/>
-      <c r="C166" s="54"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="55"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="56"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="54"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="55"/>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="54"/>
-      <c r="C167" s="54"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="56"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="54"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="55"/>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="54"/>
-      <c r="C168" s="54"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="55"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="56"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="54"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="55"/>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="54"/>
-      <c r="C169" s="54"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="56"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="54"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="55"/>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="54"/>
-      <c r="C170" s="54"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="55"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="56"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="54"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="55"/>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="54"/>
-      <c r="C171" s="54"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="55"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="56"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="54"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="55"/>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="54"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="56"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="54"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="55"/>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="54"/>
-      <c r="C173" s="54"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="55"/>
-      <c r="F173" s="54"/>
-      <c r="G173" s="56"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="54"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="55"/>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="54"/>
-      <c r="C174" s="54"/>
-      <c r="D174" s="55"/>
-      <c r="E174" s="55"/>
-      <c r="F174" s="54"/>
-      <c r="G174" s="56"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="54"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="55"/>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="54"/>
-      <c r="C175" s="54"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="55"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="56"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="54"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="55"/>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="54"/>
-      <c r="C176" s="54"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="56"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="54"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="55"/>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="54"/>
-      <c r="C177" s="54"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="55"/>
-      <c r="F177" s="54"/>
-      <c r="G177" s="56"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="54"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="55"/>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="54"/>
-      <c r="C178" s="54"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="55"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="56"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="54"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="55"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="54"/>
-      <c r="C179" s="54"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="54"/>
-      <c r="G179" s="56"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="54"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="55"/>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="54"/>
-      <c r="C180" s="54"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="56"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="55"/>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="54"/>
-      <c r="C181" s="54"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="54"/>
-      <c r="G181" s="56"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="55"/>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="54"/>
-      <c r="C182" s="54"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="56"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="54"/>
+      <c r="E182" s="54"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="55"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="54"/>
-      <c r="C183" s="54"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="56"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="55"/>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="54"/>
-      <c r="C184" s="54"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="54"/>
-      <c r="G184" s="56"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="54"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="55"/>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="54"/>
-      <c r="C185" s="54"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="54"/>
-      <c r="G185" s="56"/>
+      <c r="B185" s="53"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="54"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="55"/>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="54"/>
-      <c r="C186" s="54"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="55"/>
-      <c r="F186" s="54"/>
-      <c r="G186" s="56"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="53"/>
+      <c r="D186" s="54"/>
+      <c r="E186" s="54"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="55"/>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="54"/>
-      <c r="C187" s="54"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="54"/>
-      <c r="G187" s="56"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="53"/>
+      <c r="D187" s="54"/>
+      <c r="E187" s="54"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="55"/>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="54"/>
-      <c r="C188" s="54"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="55"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="56"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="54"/>
+      <c r="E188" s="54"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="55"/>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="54"/>
-      <c r="C189" s="54"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="54"/>
-      <c r="G189" s="56"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="54"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="55"/>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="54"/>
-      <c r="C190" s="54"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="55"/>
-      <c r="F190" s="54"/>
-      <c r="G190" s="56"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="54"/>
+      <c r="E190" s="54"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="55"/>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="54"/>
-      <c r="C191" s="54"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="55"/>
-      <c r="F191" s="54"/>
-      <c r="G191" s="56"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="54"/>
+      <c r="E191" s="54"/>
+      <c r="F191" s="53"/>
+      <c r="G191" s="55"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="54"/>
-      <c r="C192" s="54"/>
-      <c r="D192" s="55"/>
-      <c r="E192" s="55"/>
-      <c r="F192" s="54"/>
-      <c r="G192" s="56"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="53"/>
+      <c r="D192" s="54"/>
+      <c r="E192" s="54"/>
+      <c r="F192" s="53"/>
+      <c r="G192" s="55"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="54"/>
-      <c r="C193" s="54"/>
-      <c r="D193" s="55"/>
-      <c r="E193" s="55"/>
-      <c r="F193" s="54"/>
-      <c r="G193" s="56"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="53"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="54"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="55"/>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="54"/>
-      <c r="C194" s="54"/>
-      <c r="D194" s="55"/>
-      <c r="E194" s="55"/>
-      <c r="F194" s="54"/>
-      <c r="G194" s="56"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="53"/>
+      <c r="D194" s="54"/>
+      <c r="E194" s="54"/>
+      <c r="F194" s="53"/>
+      <c r="G194" s="55"/>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="54"/>
-      <c r="C195" s="54"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="55"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="56"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="53"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="53"/>
+      <c r="G195" s="55"/>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="54"/>
-      <c r="C196" s="54"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="55"/>
-      <c r="F196" s="54"/>
-      <c r="G196" s="56"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="54"/>
+      <c r="F196" s="53"/>
+      <c r="G196" s="55"/>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="54"/>
-      <c r="C197" s="54"/>
-      <c r="D197" s="55"/>
-      <c r="E197" s="55"/>
-      <c r="F197" s="54"/>
-      <c r="G197" s="56"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="55"/>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="54"/>
-      <c r="C198" s="54"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="54"/>
-      <c r="G198" s="56"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="54"/>
+      <c r="E198" s="54"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="55"/>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="54"/>
-      <c r="C199" s="54"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="54"/>
-      <c r="G199" s="56"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="53"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="54"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="55"/>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="54"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="55"/>
-      <c r="F200" s="54"/>
-      <c r="G200" s="56"/>
+      <c r="B200" s="53"/>
+      <c r="C200" s="53"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="54"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="55"/>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="54"/>
-      <c r="C201" s="54"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="54"/>
-      <c r="G201" s="56"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="53"/>
+      <c r="G201" s="55"/>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="54"/>
-      <c r="C202" s="54"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="54"/>
-      <c r="G202" s="56"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="54"/>
+      <c r="E202" s="54"/>
+      <c r="F202" s="53"/>
+      <c r="G202" s="55"/>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="54"/>
-      <c r="C203" s="54"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="54"/>
-      <c r="G203" s="56"/>
+      <c r="B203" s="53"/>
+      <c r="C203" s="53"/>
+      <c r="D203" s="54"/>
+      <c r="E203" s="54"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="55"/>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="54"/>
-      <c r="C204" s="54"/>
-      <c r="D204" s="55"/>
-      <c r="E204" s="55"/>
-      <c r="F204" s="54"/>
-      <c r="G204" s="56"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="53"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="54"/>
+      <c r="F204" s="53"/>
+      <c r="G204" s="55"/>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="54"/>
-      <c r="C205" s="54"/>
-      <c r="D205" s="55"/>
-      <c r="E205" s="55"/>
-      <c r="F205" s="54"/>
-      <c r="G205" s="56"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="53"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="55"/>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="54"/>
-      <c r="C206" s="54"/>
-      <c r="D206" s="55"/>
-      <c r="E206" s="55"/>
-      <c r="F206" s="54"/>
-      <c r="G206" s="56"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="53"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="54"/>
+      <c r="F206" s="53"/>
+      <c r="G206" s="55"/>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="54"/>
-      <c r="C207" s="54"/>
-      <c r="D207" s="55"/>
-      <c r="E207" s="55"/>
-      <c r="F207" s="54"/>
-      <c r="G207" s="56"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="53"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="54"/>
+      <c r="F207" s="53"/>
+      <c r="G207" s="55"/>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="54"/>
-      <c r="C208" s="54"/>
-      <c r="D208" s="55"/>
-      <c r="E208" s="55"/>
-      <c r="F208" s="54"/>
-      <c r="G208" s="56"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="53"/>
+      <c r="D208" s="54"/>
+      <c r="E208" s="54"/>
+      <c r="F208" s="53"/>
+      <c r="G208" s="55"/>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="54"/>
-      <c r="C209" s="54"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="55"/>
-      <c r="F209" s="54"/>
-      <c r="G209" s="56"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="53"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="53"/>
+      <c r="G209" s="55"/>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="54"/>
-      <c r="C210" s="54"/>
-      <c r="D210" s="55"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="54"/>
-      <c r="G210" s="56"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="53"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="54"/>
+      <c r="F210" s="53"/>
+      <c r="G210" s="55"/>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="54"/>
-      <c r="C211" s="54"/>
-      <c r="D211" s="55"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="54"/>
-      <c r="G211" s="56"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="53"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="53"/>
+      <c r="G211" s="55"/>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="54"/>
-      <c r="C212" s="54"/>
-      <c r="D212" s="55"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="54"/>
-      <c r="G212" s="56"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="54"/>
+      <c r="E212" s="54"/>
+      <c r="F212" s="53"/>
+      <c r="G212" s="55"/>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="54"/>
-      <c r="C213" s="54"/>
-      <c r="D213" s="55"/>
-      <c r="E213" s="55"/>
-      <c r="F213" s="54"/>
-      <c r="G213" s="56"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="53"/>
+      <c r="G213" s="55"/>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="54"/>
-      <c r="C214" s="54"/>
-      <c r="D214" s="55"/>
-      <c r="E214" s="55"/>
-      <c r="F214" s="54"/>
-      <c r="G214" s="56"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="54"/>
+      <c r="E214" s="54"/>
+      <c r="F214" s="53"/>
+      <c r="G214" s="55"/>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="54"/>
-      <c r="C215" s="54"/>
-      <c r="D215" s="55"/>
-      <c r="E215" s="55"/>
-      <c r="F215" s="54"/>
-      <c r="G215" s="56"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="54"/>
+      <c r="E215" s="54"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="55"/>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="54"/>
-      <c r="C216" s="54"/>
-      <c r="D216" s="55"/>
-      <c r="E216" s="55"/>
-      <c r="F216" s="54"/>
-      <c r="G216" s="56"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="53"/>
+      <c r="D216" s="54"/>
+      <c r="E216" s="54"/>
+      <c r="F216" s="53"/>
+      <c r="G216" s="55"/>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="54"/>
-      <c r="C217" s="54"/>
-      <c r="D217" s="55"/>
-      <c r="E217" s="55"/>
-      <c r="F217" s="54"/>
-      <c r="G217" s="56"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="54"/>
+      <c r="F217" s="53"/>
+      <c r="G217" s="55"/>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="54"/>
-      <c r="C218" s="54"/>
-      <c r="D218" s="55"/>
-      <c r="E218" s="55"/>
-      <c r="F218" s="54"/>
-      <c r="G218" s="56"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="54"/>
+      <c r="E218" s="54"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="55"/>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="54"/>
-      <c r="C219" s="54"/>
-      <c r="D219" s="55"/>
-      <c r="E219" s="55"/>
-      <c r="F219" s="54"/>
-      <c r="G219" s="56"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="54"/>
+      <c r="E219" s="54"/>
+      <c r="F219" s="53"/>
+      <c r="G219" s="55"/>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="54"/>
-      <c r="C220" s="54"/>
-      <c r="D220" s="55"/>
-      <c r="E220" s="55"/>
-      <c r="F220" s="54"/>
-      <c r="G220" s="56"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="54"/>
+      <c r="E220" s="54"/>
+      <c r="F220" s="53"/>
+      <c r="G220" s="55"/>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="54"/>
-      <c r="C221" s="54"/>
-      <c r="D221" s="55"/>
-      <c r="E221" s="55"/>
-      <c r="F221" s="54"/>
-      <c r="G221" s="56"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="54"/>
+      <c r="F221" s="53"/>
+      <c r="G221" s="55"/>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="54"/>
-      <c r="C222" s="54"/>
-      <c r="D222" s="55"/>
-      <c r="E222" s="55"/>
-      <c r="F222" s="54"/>
-      <c r="G222" s="56"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="54"/>
+      <c r="E222" s="54"/>
+      <c r="F222" s="53"/>
+      <c r="G222" s="55"/>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="54"/>
-      <c r="C223" s="54"/>
-      <c r="D223" s="55"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="54"/>
-      <c r="G223" s="56"/>
+      <c r="B223" s="53"/>
+      <c r="C223" s="53"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="54"/>
+      <c r="F223" s="53"/>
+      <c r="G223" s="55"/>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="54"/>
-      <c r="C224" s="54"/>
-      <c r="D224" s="55"/>
-      <c r="E224" s="55"/>
-      <c r="F224" s="54"/>
-      <c r="G224" s="56"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="54"/>
+      <c r="E224" s="54"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="55"/>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="54"/>
-      <c r="C225" s="54"/>
-      <c r="D225" s="55"/>
-      <c r="E225" s="55"/>
-      <c r="F225" s="54"/>
-      <c r="G225" s="56"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="53"/>
+      <c r="D225" s="54"/>
+      <c r="E225" s="54"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="55"/>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="54"/>
-      <c r="C226" s="54"/>
-      <c r="D226" s="55"/>
-      <c r="E226" s="55"/>
-      <c r="F226" s="54"/>
-      <c r="G226" s="56"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="53"/>
+      <c r="D226" s="54"/>
+      <c r="E226" s="54"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="55"/>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="54"/>
-      <c r="C227" s="54"/>
-      <c r="D227" s="55"/>
-      <c r="E227" s="55"/>
-      <c r="F227" s="54"/>
-      <c r="G227" s="56"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="53"/>
+      <c r="D227" s="54"/>
+      <c r="E227" s="54"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="55"/>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="54"/>
-      <c r="C228" s="54"/>
-      <c r="D228" s="55"/>
-      <c r="E228" s="55"/>
-      <c r="F228" s="54"/>
-      <c r="G228" s="56"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="53"/>
+      <c r="D228" s="54"/>
+      <c r="E228" s="54"/>
+      <c r="F228" s="53"/>
+      <c r="G228" s="55"/>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="54"/>
-      <c r="C229" s="54"/>
-      <c r="D229" s="55"/>
-      <c r="E229" s="55"/>
-      <c r="F229" s="54"/>
-      <c r="G229" s="56"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="54"/>
+      <c r="E229" s="54"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="55"/>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="54"/>
-      <c r="C230" s="54"/>
-      <c r="D230" s="55"/>
-      <c r="E230" s="55"/>
-      <c r="F230" s="54"/>
-      <c r="G230" s="56"/>
+      <c r="B230" s="53"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="54"/>
+      <c r="E230" s="54"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="55"/>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="54"/>
-      <c r="C231" s="54"/>
-      <c r="D231" s="55"/>
-      <c r="E231" s="55"/>
-      <c r="F231" s="54"/>
-      <c r="G231" s="56"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="53"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="54"/>
+      <c r="F231" s="53"/>
+      <c r="G231" s="55"/>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="54"/>
-      <c r="C232" s="54"/>
-      <c r="D232" s="55"/>
-      <c r="E232" s="55"/>
-      <c r="F232" s="54"/>
-      <c r="G232" s="56"/>
+      <c r="B232" s="53"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="54"/>
+      <c r="E232" s="54"/>
+      <c r="F232" s="53"/>
+      <c r="G232" s="55"/>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="54"/>
-      <c r="C233" s="54"/>
-      <c r="D233" s="55"/>
-      <c r="E233" s="55"/>
-      <c r="F233" s="54"/>
-      <c r="G233" s="56"/>
+      <c r="B233" s="53"/>
+      <c r="C233" s="53"/>
+      <c r="D233" s="54"/>
+      <c r="E233" s="54"/>
+      <c r="F233" s="53"/>
+      <c r="G233" s="55"/>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="54"/>
-      <c r="C234" s="54"/>
-      <c r="D234" s="55"/>
-      <c r="E234" s="55"/>
-      <c r="F234" s="54"/>
-      <c r="G234" s="56"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="53"/>
+      <c r="D234" s="54"/>
+      <c r="E234" s="54"/>
+      <c r="F234" s="53"/>
+      <c r="G234" s="55"/>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="54"/>
-      <c r="C235" s="54"/>
-      <c r="D235" s="55"/>
-      <c r="E235" s="55"/>
-      <c r="F235" s="54"/>
-      <c r="G235" s="56"/>
+      <c r="B235" s="53"/>
+      <c r="C235" s="53"/>
+      <c r="D235" s="54"/>
+      <c r="E235" s="54"/>
+      <c r="F235" s="53"/>
+      <c r="G235" s="55"/>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="54"/>
-      <c r="C236" s="54"/>
-      <c r="D236" s="55"/>
-      <c r="E236" s="55"/>
-      <c r="F236" s="54"/>
-      <c r="G236" s="56"/>
+      <c r="B236" s="53"/>
+      <c r="C236" s="53"/>
+      <c r="D236" s="54"/>
+      <c r="E236" s="54"/>
+      <c r="F236" s="53"/>
+      <c r="G236" s="55"/>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="54"/>
-      <c r="C237" s="54"/>
-      <c r="D237" s="55"/>
-      <c r="E237" s="55"/>
-      <c r="F237" s="54"/>
-      <c r="G237" s="56"/>
+      <c r="B237" s="53"/>
+      <c r="C237" s="53"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="54"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="55"/>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="54"/>
-      <c r="C238" s="54"/>
-      <c r="D238" s="55"/>
-      <c r="E238" s="55"/>
-      <c r="F238" s="54"/>
-      <c r="G238" s="56"/>
+      <c r="B238" s="53"/>
+      <c r="C238" s="53"/>
+      <c r="D238" s="54"/>
+      <c r="E238" s="54"/>
+      <c r="F238" s="53"/>
+      <c r="G238" s="55"/>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="54"/>
-      <c r="C239" s="54"/>
-      <c r="D239" s="55"/>
-      <c r="E239" s="55"/>
-      <c r="F239" s="54"/>
-      <c r="G239" s="56"/>
+      <c r="B239" s="53"/>
+      <c r="C239" s="53"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="54"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="55"/>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="54"/>
-      <c r="C240" s="54"/>
-      <c r="D240" s="55"/>
-      <c r="E240" s="55"/>
-      <c r="F240" s="54"/>
-      <c r="G240" s="56"/>
+      <c r="B240" s="53"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="54"/>
+      <c r="E240" s="54"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="55"/>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="54"/>
-      <c r="C241" s="54"/>
-      <c r="D241" s="55"/>
-      <c r="E241" s="55"/>
-      <c r="F241" s="54"/>
-      <c r="G241" s="56"/>
+      <c r="B241" s="53"/>
+      <c r="C241" s="53"/>
+      <c r="D241" s="54"/>
+      <c r="E241" s="54"/>
+      <c r="F241" s="53"/>
+      <c r="G241" s="55"/>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="54"/>
-      <c r="C242" s="54"/>
-      <c r="D242" s="55"/>
-      <c r="E242" s="55"/>
-      <c r="F242" s="54"/>
-      <c r="G242" s="56"/>
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="54"/>
+      <c r="E242" s="54"/>
+      <c r="F242" s="53"/>
+      <c r="G242" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G206" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -5425,26 +5435,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5452,14 +5462,14 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>45615</v>
       </c>
     </row>
@@ -5467,14 +5477,14 @@
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>45580</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -5556,44 +5566,44 @@
       <c r="E16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>100</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="36" t="s">
         <v>100</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="84" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>105</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="85" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5626,7 +5636,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5646,23 +5656,23 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5670,43 +5680,43 @@
       <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="B18" s="35"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zv3IcMyQ+b9d+cRrqmz5jNS2YpSgRTm3+c2/N7tYsJTncnBZ7OCH8yxv83rK0MWG+0YA6peEieWXzGf4hv/g+w==" saltValue="k830diYFyTK3yxwjP65REw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
